--- a/Data/Output/Comentarios.xlsx
+++ b/Data/Output/Comentarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Archivos\OneDrive\Programación\GitHub\UitPath\FindComments_PlatziCourse\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932303AD-C0F5-48F6-866B-00751962342E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19968A45-9F04-4C61-BB3F-67E76C9FB687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30525" yWindow="1680" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="621">
   <si>
     <t>Nombre</t>
   </si>
@@ -56,67 +56,1989 @@
     <t>Respuestas</t>
   </si>
   <si>
+    <t>Elias Ojeda Medina</t>
+  </si>
+  <si>
+    <t>Es increíble esto de los paquetes.
+Al instalar el programa pensé que sólo se podía programar con vbasic y c# que está en pruebas,</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1604914/</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Curso de Automatización de Procesos RPA con UiPath</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Este curso está genial 
+Cosas que te pueden llevar tiempo programar en unos clicks ya está, hay muchisimas aplicaciones para esto</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1605092/</t>
+  </si>
+  <si>
+    <t>Guillermo Armando López ayala</t>
+  </si>
+  <si>
+    <t>Trabajo en un empresa logística solo es puro reporteo pero accedes a varias paginas web para descargar estos archivos es posible que el bot pueda estar asiendo estas descargas y correr macros?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1510540/</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>Alvaro Fernández Ochoa</t>
+  </si>
+  <si>
+    <t>El error es que tiene el mismo nombre el archivo supongo.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1409472/</t>
+  </si>
+  <si>
+    <t>Jony Caleb Hurtado Ramos</t>
+  </si>
+  <si>
+    <t>Propiedades de headers
+https://docs.microsoft.com/en-us/dotnet/api/system.net.mail.mailmessage?view=netframework-4.8
+Servidor SMTP Gmail
+smtp.gmail.com 465
+Servidor IMAP Gmail
+imap.gmail.com 993</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1443334/</t>
+  </si>
+  <si>
+    <t>NIcolas_Antognoli</t>
+  </si>
+  <si>
+    <t>Actualmente donde trabajo usamos UIPath para la carga de facturas de proveedores y funciona perfecto el OCR leyendo las mismas. Y cuando algún dato no encuentra pregunta por mail para continuar con la carga. Tambien para cargar datos de tipo de cambio a los sistemas, conciliaciones bancarias, etc.etc… Yo creo que lo mejor es comenzar con procesos chicos, y luego ir agarrando impulso con proyectos mas grandes, para que entiendan el potencial de la herramienta. El miedo al reemplazo a veces genera que no se abran para estas tecnologías, pero en realidad tienen que convivir ambas, y donde se generan procesos repetitivos dar lugar al RPA para que las personas se enfoquen mas en temas de análisis.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1406404/</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Claudio Pedalino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 lecciones consecutivas de texto no es mucho?
+Es decir, creo que si quiero documentacion voy a la pagina oficial de uipath, porfa vengo aca por los buenos videos que tienen </t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1420751/</t>
+  </si>
+  <si>
+    <t>William Glaffo</t>
+  </si>
+  <si>
+    <t>Error video: Posterior a la creación de la carpeta, debemos dar clic derecho sobre la carpeta, luego en Add y seleccionamos “Sequence” para crear el XAML. Otra forma de crear el XAML es dar clic derecho sobre la Sequence en nuestro Main, luego elegimos “Extract as Workflow”</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1464767/</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Chrystian Fabian Lozano Ramirez</t>
+  </si>
+  <si>
+    <t>ESTO ES REAL?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1500466/</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>GERARDO EMMANUEL ALONSO CELIS</t>
+  </si>
+  <si>
+    <t>Vengo en la ruta de fundamentos de programación y no tenía idea de que existía esto pero se ve y suena muy interesante, veamos si lo entiendo.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1477004/</t>
+  </si>
+  <si>
+    <t>dreyess</t>
+  </si>
+  <si>
+    <t>Vi el curso en el ultimo video de Isis  es requisito tener un conocimiento previo de algun lenguaje de programación?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1435859/</t>
+  </si>
+  <si>
+    <t>Daniel Alejandro Bedoya Lopera</t>
+  </si>
+  <si>
+    <t>Este curso es mi primer acercamiento al mundo de platzi, no tengo conocimientos de programación pero me llama mucho la atención todo el tema.
+¿Alguna recomendación?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1450049/</t>
+  </si>
+  <si>
+    <t>Iván Acosta</t>
+  </si>
+  <si>
+    <t>Excelente Inicio. Sin embargo tengo una pregunta… ¿Porque UIPATH y no otras soluciones como Automation Anyware o soluciones open source?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1434120/</t>
+  </si>
+  <si>
+    <t>Carlos Herrera</t>
+  </si>
+  <si>
+    <t>Vaya algo muy interesante de aprender aquí vamos!</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1434772/</t>
+  </si>
+  <si>
+    <t>tuEfra_</t>
+  </si>
+  <si>
+    <t>Justo lo que estaba buscando. A aprender se ha dicho.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1412451/</t>
+  </si>
+  <si>
+    <t>ZusMexSide</t>
+  </si>
+  <si>
+    <t>Creo que mejor esperen hasta que salgan desde casa xd jaja se ve fea la calidad, hasta parece que me lo saque en pirata jaja</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1419095/</t>
+  </si>
+  <si>
+    <t>Víctor León</t>
+  </si>
+  <si>
+    <t>Esperaba este curso</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1406307/</t>
+  </si>
+  <si>
+    <t>miniendo</t>
+  </si>
+  <si>
+    <t>Actualmente trabajo como Tester he tenido algo de contacto con procesos automatizados estoy anciancioso por aprender mas de procesos de automatizacio con esta herramienta y mejorar mi perfil profesional.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1406921/</t>
+  </si>
+  <si>
+    <t>Lisa Daniela Villar Contreras</t>
+  </si>
+  <si>
+    <t>Esperaba mucho este curso ! Gracias</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1406518/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excelente!! hace muy poco me contaron de UIPath y me interesó mucho, viene justo el curso… </t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1411409/</t>
+  </si>
+  <si>
+    <t>Andres Felipe Bravo Piñeros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super!!! Trabajo con RPA a través de la herramienta Automation Anywhere pero estoy ansioso de aprender y empezar a trabajar con UiPath </t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1406612/</t>
+  </si>
+  <si>
+    <t>Brayan Potosi Dominguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que introducción tan innovadora </t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1406091/</t>
+  </si>
+  <si>
+    <t>Germán Danilo Forero Vargas</t>
+  </si>
+  <si>
+    <t>Explicación clara y prática, empezamos bien.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1406118/</t>
+  </si>
+  <si>
+    <t>Gonzalo Flores</t>
+  </si>
+  <si>
+    <t>Excelente, empezamos con toda la actitud</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1406228/</t>
+  </si>
+  <si>
+    <t>Robert Guerrero Cavana</t>
+  </si>
+  <si>
+    <t>Existe alguna plataforma abierta que permita realizar Robots? no solo las versiones demos de UIpath o Automation?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1540987/</t>
+  </si>
+  <si>
+    <t>Alix Vanegas</t>
+  </si>
+  <si>
+    <t>Al parecer todos los participantes tienen gran conocimiento al respecto, yo soy psicologa y quiero aprender al respecto para crear mi propia infraestructura de trabajo.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1457032/</t>
+  </si>
+  <si>
+    <t>Excelente información, muchas expectativas para este curso.
+Me imagino que a medida que avanza el curso cada uno se va direccionando por un rol o se empieza en uno y se va escalando?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1439136/</t>
+  </si>
+  <si>
+    <t>Muy buena explicación sobre el equipo de trabajo que hacen parte de los proyectos de RPA. Sin embargo que algo complementarios al equipo de trabajo, seria indispensable mostrar de que manera evaluar y elegir entre las diferentes opciones de software para desarrollar RPA. Por ejemplo (Automation Anyware, Blueprism, Robotframework…).</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1434256/</t>
+  </si>
+  <si>
+    <t>Marco Esparza</t>
+  </si>
+  <si>
+    <t>Donde puedo consultar los precios de uipath?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1423147/</t>
+  </si>
+  <si>
+    <t>Jaime André Silva Marroquín</t>
+  </si>
+  <si>
+    <t>Que tan amplio debe ser el conocimiento programando con diferentes lenguajes para decidir indagar mas en el mundo de RPA?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1411323/</t>
+  </si>
+  <si>
+    <t>Dario Perea</t>
+  </si>
+  <si>
+    <t>Como suele suceder en este hermoso ambiente. Tenemos la teoría, “lo ideal” y la práctica.
+Los roles están bien definidos y se debería respetar. Nada quita que el que releva el proceso, instale los programas, programe las tareas de ejecución y desarrolle, sea la misma persona. Es muy probable que una misma persona ocupe mas de un rol en el equipo. Al menos esa es la experiencia en nuestro equipo.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1407232/</t>
+  </si>
+  <si>
+    <t>Alexander Silvera</t>
+  </si>
+  <si>
+    <t>Al parecer un desarrollador solo no podría crear por si solo este tipo de soluciones?? O es para procesos de automatización de alta escala donde participan todos estos actores???</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1406337/</t>
+  </si>
+  <si>
+    <t>Muchos roles participantes en el proceso…</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1406132/</t>
+  </si>
+  <si>
+    <t>ivanuribe98</t>
+  </si>
+  <si>
+    <t>que diferencia hay con blueprism</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1574210/</t>
+  </si>
+  <si>
+    <t>Jhonntan Andres Castaño Rojas</t>
+  </si>
+  <si>
+    <t>que hacemos las personas que usamos linux?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1474398/</t>
+  </si>
+  <si>
+    <t>Es solo para windows?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1423201/</t>
+  </si>
+  <si>
+    <t>Jose Ignacio Ruiz Corrales</t>
+  </si>
+  <si>
+    <t>Listo descargando… Esta interesante este curso, tengo buenas expectativas.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1420218/</t>
+  </si>
+  <si>
+    <t>eduardog89</t>
+  </si>
+  <si>
+    <t>me salen dos versiones… studio y studio X…una es la version de paga o algo asi?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1408105/</t>
+  </si>
+  <si>
+    <t>vamonos!</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1408102/</t>
+  </si>
+  <si>
+    <t>yeisonmmartinez</t>
+  </si>
+  <si>
+    <t>En el siguiente enlace pueden verificar los requerimientos de Hardware y Software recomendados</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1407771/</t>
+  </si>
+  <si>
+    <t>No hay una guía de como descargar UiPathStudio para Ubuntu?? Porque no estoy pudiendo bajar el ejecutable.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1406657/</t>
+  </si>
+  <si>
+    <t>Perfecto, vamos a ello !</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1406138/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tengo altas espectativas con este curso, hay varias cosas que se me ocurren automatizar </t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1604080/</t>
+  </si>
+  <si>
+    <t>Alfonso Lara</t>
+  </si>
+  <si>
+    <t>Hola. Dentro del menú del home no me aparece ninguna opción para descargar el instalador. Alguien podría ayudarme</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1566957/</t>
+  </si>
+  <si>
+    <t>Davidre0795</t>
+  </si>
+  <si>
+    <t>Me recuerda mucho a SSIS. Sería interesante tener una clase que compare otras alternativas con ventajas y desventajas.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1417919/</t>
+  </si>
+  <si>
+    <t>Ya instale el UIpath ahora que comiencen los juegos!!!</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1458415/</t>
+  </si>
+  <si>
+    <t>Se puede decir que al escoger la opción Proceso al momento de crear el proyecto se entendería que es un proceso empresarial, ósea, es la opción donde desarrollo todo el workflow y detallo todas las actividades de negocio?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1434901/</t>
+  </si>
+  <si>
+    <t>kikega</t>
+  </si>
+  <si>
+    <t>Seria interesante, conocer la arquitectura de la solución, que software interviene y donde</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1414236/</t>
+  </si>
+  <si>
+    <t>Carlos Abel Dominguez Bautista</t>
+  </si>
+  <si>
+    <t>Brutal!</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1408798/</t>
+  </si>
+  <si>
+    <t>todo listo hasta ahora…</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1408159/</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1604627/</t>
+  </si>
+  <si>
+    <t>TERMINE MI DIAGRAMA DE FLUJO</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1594458/</t>
+  </si>
+  <si>
+    <t>Cristian David Hernandez Mendoza</t>
+  </si>
+  <si>
+    <t>1° reto, crear diagrama de flujo
+2° reto, dejar en los comentarios mi diagrama de flujo jaja, tardamos pero se cumplieron ambos retos jaja.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1553488/</t>
+  </si>
+  <si>
+    <t>Juan Diego García Gaviria</t>
+  </si>
+  <si>
+    <t>Vamos con toda !
+![](url) Iba a montar la imagen pero no me deja, me salen las letras que están al inicio :c</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1540483/</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1458807/</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1450229/</t>
+  </si>
+  <si>
+    <t>Si entendí bien el reto. Creo que quedaria algo así!</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1441599/</t>
+  </si>
+  <si>
+    <t>Del Carmen Luz</t>
+  </si>
+  <si>
+    <t>Me costo trabajo, pero logre hacerlo.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1440342/</t>
+  </si>
+  <si>
+    <t>Esteban Pallares Rodriguez</t>
+  </si>
+  <si>
+    <t>listo</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1439689/</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1430483/</t>
+  </si>
+  <si>
+    <t>Listo</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1426038/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auuuu!!! vamos por mas
+</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1421518/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+hecho</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1420759/</t>
+  </si>
+  <si>
+    <t>Carlos José González Juan</t>
+  </si>
+  <si>
+    <t>Estoy alucinando. No se en que clase me perdi. Ustedes tienen todo esto hecho y yo aun no se por donde empezar… jjajajajaj</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1419637/</t>
+  </si>
+  <si>
+    <t>Carlos Nassif Trejo Garcia</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1414021/</t>
+  </si>
+  <si>
+    <t>Así esta bien? me imagino que todavia no se sube todo el curso cierto? pero si este es el temario suena genial</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1408207/</t>
+  </si>
+  <si>
+    <t>rorygrimm</t>
+  </si>
+  <si>
+    <t>Por favor, alguien sabe que funciona mejor para OS y Web browsers: Python, XAML o alguna otra opción?
+Gracias por adelantado.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1596829/</t>
+  </si>
+  <si>
+    <t>Mónica Argüello</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1569342/</t>
+  </si>
+  <si>
+    <t>Llegue al resultado pero como mencionas ojala puedan editar el video para que sea más sencillo</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1553613/</t>
+  </si>
+  <si>
+    <t>camiloorvi_</t>
+  </si>
+  <si>
+    <t>Lo que hice en el argumento fue pasarle la variable, y en el otro xaml concatenar el texto, solo para no escribir 2 veces el mismo texto… jaja
+[](</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1531488/</t>
+  </si>
+  <si>
+    <t>ignacioaredez</t>
+  </si>
+  <si>
+    <t>La edición del video lo hace muy confuso. Se debería volver a editar. Se eta haciendo algo sencillo pero los pasos para ir de A a B a C terminan siendo un dolor de cabeza. Opte por saltarme la clase, entendí los conceptos pero el camino que se debe seguir no esta claro</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1486122/</t>
+  </si>
+  <si>
+    <t>De donde sale el icono de Start?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1483777/</t>
+  </si>
+  <si>
+    <t>Buenas noches, cuando ejecuto el proyecto de las variables me sale este error? estoy realizando los pasos que estan indicando?
+Error ERROR Error de validación Flowchart ‘CursoRPA_Platzi’ no tiene un StartNode. Main.xaml</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1439904/</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1450474/</t>
+  </si>
+  <si>
+    <t>Excelente el laboratorio. Vamos avanzando.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1442254/</t>
+  </si>
+  <si>
+    <t>Muy interesante, pero la clase tiene errores de edición que pueden confundir un poco, pero al final es muy gratificante cuando logras descifrar como funciona</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1430140/</t>
+  </si>
+  <si>
+    <t>Variables:
+Contendor de información
+Alcance definido
+Específicos para cada función
+Archivo XAML: Contendor de actividades que nos permite mandar a llamar el flujo de actividades</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1420305/</t>
+  </si>
+  <si>
+    <t>Daniel Daniel Burgos</t>
+  </si>
+  <si>
+    <t>Por que cuando corro el argumento “Hola Mundo desde XAML” se imprime indefinidamente? (Como defino el numero de impresion?)</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1495477/</t>
+  </si>
+  <si>
+    <t>No me creo el mismo elemento en la carpeta “XAML CreadosEnElCurso.” ¿De donde saco el “EscribirHolaMundo”?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1440449/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me queda la inquietud con la diferencia entre variables y argumentos. </t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1430426/</t>
+  </si>
+  <si>
+    <t>Me da un error “no se puede acceder al objeto deseado”</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1414408/</t>
+  </si>
+  <si>
+    <t>Buen día, cuáles fueron las teclas para abrir NotePad en el equipo?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1540921/</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1569438/</t>
+  </si>
+  <si>
+    <t>Genial.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1511424/</t>
+  </si>
+  <si>
+    <t>Jesus Alejandro Espinoza Hernandez</t>
+  </si>
+  <si>
+    <t>Soy ingeniero electromecánico, y he trabajado en algunas áreas de automatización usando PLC, y no sabia de la existencia de RPA y se me hace súper increíble conocer esto.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1521548/</t>
+  </si>
+  <si>
+    <t>D:</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1500945/</t>
+  </si>
+  <si>
+    <t>Estuvo muy interesante el ejercicio! en esta clase ya se pone emocionante.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1477171/</t>
+  </si>
+  <si>
+    <t>Wow quedé así :0</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1444916/</t>
+  </si>
+  <si>
+    <t>Una super clase. Aprendi bastante.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1442526/</t>
+  </si>
+  <si>
+    <t>Archivo XAML: Contendor de actividades que nos permite mandar a llamar el flujo de actividades
+Ordenar código
+Segmentar funcionalidad
+Reutilizar código / funciones
+Propiedades del XAML
+Open Application &amp; Type into:
+Permite abrir aplicaciones
+Permite escribir texto plano</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1420325/</t>
+  </si>
+  <si>
+    <t>no se porque platzi hizo que me saltara esta leccion pero es la pieza del rompecabezas que faltaba! gracias</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1426690/</t>
+  </si>
+  <si>
+    <t>Parece que ya me voy enterando de algo… jejejeje. Esta bueno.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1419688/</t>
+  </si>
+  <si>
+    <t>Importante: Por buena practica poner nombres que expliquen que hace cada cosa.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1419691/</t>
+  </si>
+  <si>
+    <t>lokoplus</t>
+  </si>
+  <si>
+    <t>desde una VDA con Windows 10 Untitled - Notepad no cambia el título y a mí me sale completo el ejercicio.
+Qué raro XD</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1579633/</t>
+  </si>
+  <si>
     <t>megadelt</t>
   </si>
   <si>
-    <t>La versión de ahora en la ventana de nuevo proceso en blanco, después del nombre, ubicación y descripción me pregunta el lenguaje, C# o V...</t>
-  </si>
-  <si>
-    <t>platzi.com/comentario/1552999/</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>Curso de Automatización de Procesos RPA con UiPath</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>platzi.com/comentario/1552988/</t>
-  </si>
-  <si>
-    <t>kikega</t>
-  </si>
-  <si>
-    <t>No consigo poner el icono de start, y al arrancar, me da un error</t>
-  </si>
-  <si>
-    <t>platzi.com/comentario/1416528/</t>
-  </si>
-  <si>
-    <t>yeisonmmartinez</t>
-  </si>
-  <si>
-    <t>Con la versión community cómo se realiza el despliegue de un robot en producción?</t>
-  </si>
-  <si>
-    <t>platzi.com/comentario/1407814/</t>
-  </si>
-  <si>
-    <t>Marcelo Ganin</t>
-  </si>
-  <si>
-    <t>Que diferencia hay entre la licencia de comunidad y una clave empresarial? funcionalidades? soporte?</t>
-  </si>
-  <si>
-    <t>platzi.com/comentario/1406205/</t>
-  </si>
-  <si>
-    <t>tuEfra_</t>
-  </si>
-  <si>
-    <t>Alguien sabe que otras entradas digitales, pueden haber ademas de excel, correo electrónico y una pagina de datos web?</t>
-  </si>
-  <si>
-    <t>platzi.com/comentario/1412450/</t>
+    <t>Ahora se me viene a la mente el viejo Automator que viene incluido en MacOS, obviamente tiene muchas menos herramientas que esta aplicación. Recuerdo que una vez que se programe una actividad se podía generar un “ejecutable” que se ejecutaba sin abrir la aplicación.
+En esta aplicación se puede al final generar alguna especie de ejecutable, para ejecutar rápidamente una tarea programada?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1553476/</t>
+  </si>
+  <si>
+    <t>alexnaupay</t>
+  </si>
+  <si>
+    <t>Va expresiones regulares en los selectores?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1431913/</t>
+  </si>
+  <si>
+    <t>Estoy haciendo este labotatorio en un SO en Ingles y no se presento el error que mencionas en el video. Eso me lleva a la pregunta si el uso del (*) es opcional o depende del idioma del SO o si por el contrario es un prerrequsito o es una buena practica hacer uso de este comodin?. Adjunto imagen ![](</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1443124/</t>
+  </si>
+  <si>
+    <t>el error es que tienen diferentes nombres los bloc de notas… una pregunta… al correr el robot no me abrio el blog de notas por si solo, tiene que estar abierto previamente?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1426678/</t>
+  </si>
+  <si>
+    <t>El error se debe al nombre del archivo. Cuando se usó el selector, el nombre del archivo era “Sin titulo”. Luego que se ejecutó el robot y este escribió en el notepad, el archivo cambio de nombre a “*****Sin titulo”. Es por ello, que el robot mostrará error cuando se ejecute nuevamente.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1429618/</t>
+  </si>
+  <si>
+    <t>El error creo que es que intentamos abrir un notepad que esta abierto y no tiene nombre</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1419698/</t>
+  </si>
+  <si>
+    <t>Supongo que el asterisco de la izquierda del nombre. Indicando que hay cambios sin guardar</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1420390/</t>
+  </si>
+  <si>
+    <t>victor rodriguez</t>
+  </si>
+  <si>
+    <t>Profe Jorge.
+¿A que se refiere con enfocar la aplicación?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1409318/</t>
+  </si>
+  <si>
+    <t>Edgar Palomino</t>
+  </si>
+  <si>
+    <t>¿Porque? cuando lo corro, se queda en un loop, el mensaje “Encontre 3 palabras clave” una tras otra, tras otra, hasta que detengo el bot.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1586051/</t>
+  </si>
+  <si>
+    <t>Osvaldo Frias</t>
+  </si>
+  <si>
+    <t>¿Es posible cambiar el código de C# a VB?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1468711/</t>
+  </si>
+  <si>
+    <t>Excelente clase.! Sin embargo el lenguaje de programación que utiliza UiPath puede ser una limitante ya que VB hace mucho tiempo se encuentra de salida. En cambio otros vendors usan código en Python y/o Java u otras tecnologias abiertas.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1447334/</t>
+  </si>
+  <si>
+    <t>Nose como quitar la conexion entre codificado y las secuencias que ubicamos a la izquierda</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1434574/</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1430525/</t>
+  </si>
+  <si>
+    <t>¿Como se le hacia para poder crear la variable en el momento de introducirla directamente en el campo de assign? Me refiero en el minuto 2:00</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1424447/</t>
+  </si>
+  <si>
+    <t>Combinar Actividades con código
+Lenguaje Soportado: Visual Basic
+Se está buscando integración con C# y Java
+Integración de forma nativa
+Fácil de combinar</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1424510/</t>
+  </si>
+  <si>
+    <t>Modo depuración y puntos de ruptura
+Permite pausar las ejecuciones
+Ver errores durante la ejecución
+Mostrar ventanas complementarias</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1454153/</t>
+  </si>
+  <si>
+    <t>Muy buenas opciones. Una utilidad más a tener en cuenta cuando estamos depurando el código.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1454396/</t>
+  </si>
+  <si>
+    <t>Brady Principe Quiñones Principe Quiñones</t>
+  </si>
+  <si>
+    <t>Hola, tengo una consulta, cuando depuras existe alguna forma de empezar a depurar desde un punto en especifico, por ejemplo: tengo una secuencia con a, b, c y d de tareas, pero solo quiero que inicie la tarea c y d.
+Se que se puede comentar, pero a veces es muy tedioso.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1432080/</t>
+  </si>
+  <si>
+    <t>Adam Lei-Yi Chen Abolacio</t>
+  </si>
+  <si>
+    <t>¿Como se hace para borrar lo escrito dentro del bloc de notas?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1469538/</t>
+  </si>
+  <si>
+    <t>Lo realicé 2 veces, el primero me salió el error… y ya les voy a explicar porque.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1536075/</t>
+  </si>
+  <si>
+    <t>David Esteban Pulido Caceres</t>
+  </si>
+  <si>
+    <t>Me genera el siguiente error lo intento hacer en la herramienta como manualmente por git y me muestra el mismo error.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1499109/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ya me realiza commit después de lidiar con el error </t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1469504/</t>
+  </si>
+  <si>
+    <t>Alejandro Jesús Morales Marcos</t>
+  </si>
+  <si>
+    <t>Tengo un problema. Al hacer Git Init, me arroja el siguiente mensaje de error:</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1458856/</t>
+  </si>
+  <si>
+    <t>Al tener el double factor authentication creo que no me dejaba iniciar sesión. Lo solucione al acceder por medio de Token</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1454208/</t>
+  </si>
+  <si>
+    <t>despues de dar clic en add y save me aparce esto.
+¿que debo hacer?
+gracias</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1451571/</t>
+  </si>
+  <si>
+    <t>No entendí mucho, pero pude realizar los pasos, soy super novata en esto.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1447546/</t>
+  </si>
+  <si>
+    <t>Excelente con esto recordando los pasos de github y podemos ponder en practiva esta herramienta</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1443728/</t>
+  </si>
+  <si>
+    <t>Será que la versión más reciente no se integra con git?
+Solo me aparece TFS Y SVN. (Tengo instalado git)</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1439621/</t>
+  </si>
+  <si>
+    <t>En el curso vamos a llegar a crear un custom activity ? o como es algo más avanzado, seria interesante para un nuevo curso.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1536190/</t>
+  </si>
+  <si>
+    <t>Youssef Abarca</t>
+  </si>
+  <si>
+    <t>Bastante útil para trabajar con más aplicaciones y con diversos lenguajes de programación</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1530130/</t>
+  </si>
+  <si>
+    <t>La explicación paso a paso lo hace un más fácil de entender.! Excelente clase.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1483476/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ya instale el packages para PDF. Y ver cual me puede servir para futuros proyectos.
+</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1469789/</t>
+  </si>
+  <si>
+    <t>Estaria padre ver despues como crear nuestras propias dependencias</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1454243/</t>
+  </si>
+  <si>
+    <t>Muy bien explicado. Gracias.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1447680/</t>
+  </si>
+  <si>
+    <t>rocanrolpsycho</t>
+  </si>
+  <si>
+    <t>woow! buen hack!</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1440413/</t>
+  </si>
+  <si>
+    <t>Cuando trato de crear una variable desde la columna de propiedades, no me la genera, tengo que hacerlo desde la sección “variables” donde están las demás, alguien sabe cómo lo hace el profesor?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1579328/</t>
+  </si>
+  <si>
+    <t>No me funcionó, me da error con los dos motores OCR tanto Microsoft como Tesseract</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1574587/</t>
+  </si>
+  <si>
+    <t>Buenas noches, me ayudan por favor con este error:
+Escribir Texto In_VarTexto: Error de sintaxis en las teclas especiales. Se encontró una acción de tecla especial no válida en la posición de texto: 49.
+Muchas gracias.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1557064/</t>
+  </si>
+  <si>
+    <t>Hola, solo como comentario, a mi no me funciono al principio e hice tal cual todos los pasos, sin embargo no tenia instalado en mi pc adobe reader para leer archivos PDF desde mi pc, al instalarlo me funciono sin problemas.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1522087/</t>
+  </si>
+  <si>
+    <t>Leer datos de un PDF
+Extraer texto de un archivo
+Generar una imagen JPG del archivo
+Requiere un paquete de actividades</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1454484/</t>
+  </si>
+  <si>
+    <t>Gonza Gramaglia</t>
+  </si>
+  <si>
+    <t>¿Cómo realizó el profe el comentario de las actividades en el min 5.33?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1600587/</t>
+  </si>
+  <si>
+    <t>Ronald Quimí</t>
+  </si>
+  <si>
+    <t>hola, alguien me puede ayudar quiero guardar varias imagenes en word y luego convertirlas en pdf. estuve guiandome por este ejemplo, pero...</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1528937/</t>
+  </si>
+  <si>
+    <t>Hay forma de que el mensaje pidiendo la edad salga por encima de todo?, eso lo veremos en las próximas clases?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1590243/</t>
+  </si>
+  <si>
+    <t>Existen dos formas de manejar los if y los switch, una es para secuencias y la otra forma es para diagramas de flujo, si se ha programado realizando código en editor de texto las dos formas resultaran familiares.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1506599/</t>
+  </si>
+  <si>
+    <t>Ivan Tacuri</t>
+  </si>
+  <si>
+    <t>En caso quiero utilizar un switch pero en cada opción sea un rango de números ¿Cómo lo haría?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1456778/</t>
+  </si>
+  <si>
+    <t>Por lo que veo no hay mayor diferencia entre decisión en secuencia y diagrama de flujo.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1446117/</t>
+  </si>
+  <si>
+    <t>Andres Agudelo Jaramillo</t>
+  </si>
+  <si>
+    <t>Es malo poner tipo GenericValue a las variables que capturan los datos con el input? ya que gracias a ese tipo nos ahorramos la funcion p...</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1604606/</t>
+  </si>
+  <si>
+    <t>Angelo Gabriel Benavidez Chuquilla</t>
+  </si>
+  <si>
+    <t>While: Primero verifica la condición y luego se ejecuta.
+Do-While: Ejecuta y luego verifica la condición.
+xD saludos comunidad !</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1596367/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada clase me sorprende más esta herramienta </t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1600899/</t>
+  </si>
+  <si>
+    <t>Deiwin Ignacio Monsalve Altamar</t>
+  </si>
+  <si>
+    <t>Estoy intentado capturar la salida del browser para utilizarlo en el XAML pero no lo captura en la variable, ya que intento correrlo en el XAML me sale un error que no tiene navegador seleccionado</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1595311/</t>
+  </si>
+  <si>
+    <t>En mi caso, como hago login con mi red social, en vez de rellenar los campos de email y contraseña, uso otro clic en el botón respectivo</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1585992/</t>
+  </si>
+  <si>
+    <t>Esta clase si me costo mucho, pero esto fue debido al software, repeti la clase tres veces, cada vez que lo hacia los argumentos no se pasaban, entonces al crear el flujo de trabajo, tuve que cerrar el UiPath y volverlo a abrir para que quedara</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1527765/</t>
+  </si>
+  <si>
+    <t>Integración con navegador web
+Frecuente
+Plugin complementario
+Selectores
+Extracción de datos
+Interacción interfaz</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1460166/</t>
+  </si>
+  <si>
+    <t>Cesar Ortiz</t>
+  </si>
+  <si>
+    <t>Es así profe Jorge , hasta esta parte del curso veo que con RPA escribo menos código que automatizar con selenium webdriver . por ejemplo el caso de abrir un archivo pdf .</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1439691/</t>
+  </si>
+  <si>
+    <t>German Santana</t>
+  </si>
+  <si>
+    <t>Hola Profesor que tal, donde asignó usted el valor de las variables para su usuario de platzi y su contraseña? porque no veo los assign e...</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1479829/</t>
+  </si>
+  <si>
+    <t>Tambien puedo crear el archivo XAML abarcando el OpenBrowser inicial?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1463184/</t>
+  </si>
+  <si>
+    <t>Jorge, estoy haciendo la actividad de esta punto, pero cuando cierro y abro de nuevo el proyecto y ejecuto el XAML creado me sale este et...</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1462522/</t>
+  </si>
+  <si>
+    <t>jr091291</t>
+  </si>
+  <si>
+    <t>¿Que tan recomendable es usar los clic con captura de pantalla ?, ¿se puede perder el robot si el usuario manipula los periféricos?, ¿es ...</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1454343/</t>
+  </si>
+  <si>
+    <t>El curso va genial. Encontré que al trabajar con tablas (tag &lt;table&gt; en HTML) si se selecciona una celda de la tabla el asistente selecciona toda la tabla. Creo que es un tip a tomar en cuenta. Saludos ✋</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1473942/</t>
+  </si>
+  <si>
+    <t>A mi no me iniciaba sesión ya que nada más hacer click en iniciar sesión se va directamente a buscar los cursos en unity por eso he tenido que retrasar la siguiente actividad unos segundos</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1470875/</t>
+  </si>
+  <si>
+    <t>En mi caso estoy usando el explorador Edge, la secuencia funciona pero:
+En data scraping no me diferencia los cursos de los demás elementos
+Cuando entro a la ventana de data scrapping sale que no está validado, pero aún así funciona toda la secuencia ¿Por qué?
+Por favor resuelveme estas 2 consultas</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1458082/</t>
+  </si>
+  <si>
+    <t>Estoy en la mitad de este curso y me surgió el siguiente dilema: me dan en un excel un listado con items a los cuales yo lo tengo que bus...</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1588541/</t>
+  </si>
+  <si>
+    <t>Genial !</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1596325/</t>
+  </si>
+  <si>
+    <t>Manejar tabla de datos
+Organizar información
+Interacción de datos mediante filas y columnas
+Actividades:
+Consulta a base de datos
+Lectura de Excels
+Almacenar información estructurada</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1470639/</t>
+  </si>
+  <si>
+    <t>Excelente, que gran herramienta.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1463571/</t>
+  </si>
+  <si>
+    <t>Cuando se extrajeron los links de los cursos a estos les faltó el www.platzi.com. En la base de datos...</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1601006/</t>
+  </si>
+  <si>
+    <t>En el minuto 1:28 cuando se agrega la actividad “for Each Row” pongo row y después mi variable “CursosEncontrados” me aparece el siguient...</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1588051/</t>
+  </si>
+  <si>
+    <t>El excel lo abre y todo, pero al momento de que termina la ejecucion, no me muestra ningun output.
+Hay alguna manera de poder ver porque no esta tomando los campos?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1486638/</t>
+  </si>
+  <si>
+    <t>Hay algo extraño en la función Leer celda.
+En el Studio del profesor, en sus Propiedades -&gt; Entrada solamente hay dos campos: Celda y Nombre de hoja.
+En mi versión del Studio existe, además, un tercer campo: Ruta del libro, el cuál es obligatorio.
+El problema surge cuándo cumplimento este campo. A pesar de llenarlo de manera idéntica a todos los campos de otras funciones dónde solicitaba la ruta del archivo Excel, en el caso de Leer celda da error:</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1470345/</t>
+  </si>
+  <si>
+    <t>Despues de muchos intentos, buscandole al selector, logre terminar correctamente el robot</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1463688/</t>
+  </si>
+  <si>
+    <t>Si quiero leer un excel celda por celda, se que lo podría hacer con un ciclo más “leer celda”, pero no se me ocurre cómo podría ir avanza...</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1589435/</t>
+  </si>
+  <si>
+    <t>Puedo usar tambien ReadRange de Workbook? y Cual es la diferencia con el ReadRange de excel</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1468392/</t>
+  </si>
+  <si>
+    <t>Vaya, peligroso lo que pide profesor jejeje.
+*
+bueno, lo probaré…
+*
+hay forma de usar UIPath con la configuración de seguridad activada? por si queremos mantener algunas automatizaciones que aprendamos desde aquí?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1589467/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuando intento leer el mensaje con Get IMAP Mail me da este error </t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1461882/</t>
+  </si>
+  <si>
+    <t>Por si a alguien le pasa, como a mi en un comienzo, cuando vayan a imprimir el asunto más el cuerpo del correo, en el log en algunos casos no muestra el body, no es más por que tiene imagen, o no es texto plano que pueda leer.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1589683/</t>
+  </si>
+  <si>
+    <t>Jesús Adrián Arroyo Ceja</t>
+  </si>
+  <si>
+    <t>No es pregunta, solo como comentario me parece curioso que ocultaras el correo en una variable y después se vea en la pantalla… saludos!</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1566816/</t>
+  </si>
+  <si>
+    <t>Tengo 3 consultas:
+¿Cómo puedo hacer para obtener el archivo adjunto de un correo recibido y almacenarlo en una carpeta?
+¿Cómo podría hacer para que en cada respuesta a un correo, seleccione un archivo diferente?
+¿Cómo hacer que mi proceso se inicie al recibir un correo nuevo?.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1512521/</t>
+  </si>
+  <si>
+    <t>Interactuar con Correo
+Comunicación
+Leer correos
+Enviar y responder
+Guardar adjuntos</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1486743/</t>
+  </si>
+  <si>
+    <t>Johan Santiago Pinilla Uribe</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1427009/</t>
+  </si>
+  <si>
+    <t>¿Cómo hago para responder los correos sin perder el formato HTML del correo original?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1443574/</t>
+  </si>
+  <si>
+    <t>Profe y para el caso de outlook, no se necesita tener un puerto y un server?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1428201/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yo no sé nada aun de base de datos ni de SQL, entonces debo dejar el curso a medias e irme al curso de fundamentos de base de datos? </t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1531909/</t>
+  </si>
+  <si>
+    <t>juananquirozf</t>
+  </si>
+  <si>
+    <t>Pude conectarme a mi db en PostgreSQL usando este tutorial:
+https://forum.uipath.com/t/postgresql-with-uipath-how-to/83545
+Espero les sirva!</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1590555/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuve algunos inconvenientes principalmente por los nombre pero lo logre:
+"Server=DESKTOP-(PC);Database=CursoUiPathPlatzi;User Id=sa;Password=pass"
+</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1553153/</t>
+  </si>
+  <si>
+    <t>Fredy Garcia</t>
+  </si>
+  <si>
+    <t>Buen día, Instalando SQL Server Express en Curso de Desarrollo Web con Blazor y .Net Este es el enlace para instalar y crear la BD para e...</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1485859/</t>
+  </si>
+  <si>
+    <t>¿Es posible agregar una conexión hacia una base de datos que no sea SQL Server? ¿Cuál sería el procedimiento?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1474123/</t>
+  </si>
+  <si>
+    <t>¿Qué es?
+Plantilla de maquinas de estados
+Integrada a Orquestador
+Basado en estados y mejores practicas
+Ejemplos:
+Automatizar pagos
+Automatizar generación de gráficos
+Automatizar minado de datos</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1570404/</t>
+  </si>
+  <si>
+    <t>No quiere crear el REF, me arroja este mensaje.
+The project ‘C:\Users\USER\Documents\UiPath\Proyecto REF_CursoR PA_Platzi\project.json’ could not be opened: The semaphore has been disposed…</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1473643/</t>
+  </si>
+  <si>
+    <t>EPadronU23</t>
+  </si>
+  <si>
+    <t>Los temas oscuros tienen el peor contraste para ser mostrados en un curso/clase/tutorial/lectura… Una verdadera lástima que no se piense en la legibilidad del material…</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1574598/</t>
+  </si>
+  <si>
+    <t>Se ve muy completo. Supongo que con la practica nos familiarizaremos mas con estas herramientas</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1571209/</t>
+  </si>
+  <si>
+    <t>Hay un nuevo menú de testing. Es posible que abarques este tema en algún momento?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1557048/</t>
+  </si>
+  <si>
+    <t>Muy bien… Vamos a configurar el orquestador</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1477005/</t>
+  </si>
+  <si>
+    <t>Buenas.
+A mi me cuesta la lectura. Pero creo que para estos temas particulares sirve más un texto que un video. Imaginate tener que seguir al profe en un video mientras explica como cargar un excel y crear variables, me resulta más incómodo seguir al profe y parar el video cada vez que escribe que hacer un copy&amp;paste del contenido del texto. Aparte sirve a la hora de volver a repasar partes específicas sin tener que buscar en los videos o abusar de los marcadores.  
+Saludos.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1598997/</t>
+  </si>
+  <si>
+    <t>Desde que instale UiPath, no me dejo un icono donde poder abrir de nuevo la aplicación, solo el .exe, así que tuve que anclar la ventana a mi barra de tareas y desde hay abro siempre Ui, pero ahora que debo encontrar el nombre del orquestador, no tengo nada de Ui, mas que una carpeta y el .exe, que hago en este caso?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1596176/</t>
+  </si>
+  <si>
+    <t>Requerimientos para sincronizar:
+Machine key
+URL Orquestador
+Datos del ordenador
+UiPath y cuenta
+**
+Pasos:**
+Crear la maquina y obtener el machine key
+a. Guardarlo en el asistente
+Crear un bot asignado a la maquina
+Crear un entorno y vincularlo al bot
+Crear la queue para el robot</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1583195/</t>
+  </si>
+  <si>
+    <t>estoy un poco perdido, el assistant de Uipath debe estar en la descarga inicial con el studio o se debe descargar aparte?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1477909/</t>
+  </si>
+  <si>
+    <t>Existe alguna forma de encriptar credenciales o datos dentro de UiPath sin necesidad de usar el orquestador?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1568071/</t>
+  </si>
+  <si>
+    <t>La dislexia es nuestro peor enemigo definitivamente… Casi muero encontrando un error de una variable mal escrita en el config.xls</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1591462/</t>
+  </si>
+  <si>
+    <t>Hay que tener cuidado con los nombres que se utilizan para evitar inconvenientes. Siempre verificando que todas las variables entre comillas estén escritas de forma correcta.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1573152/</t>
+  </si>
+  <si>
+    <t>Después de tanto errores que me salieron, logre solucionarlos, casi lloro, ya estaba a punto de rendirme</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1536989/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mi me dio el mismo error en el Read Text File, pero yo tenia bien escrito todo. borre el texto y lo copie de nuevo y me sigue saliendo el error, verifique en el archivo excel que todo estuviera en orden y bien escrito y todo esta bien, pero el error persiste
+</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1497963/</t>
+  </si>
+  <si>
+    <t>Buenas de nuevo! Ahora me ocurre que el robot hace una transacción, la termina como exitosa y empieza otra, así en un bucle infinito. En algún sitio me he equivocado generando dicho bucle inifinito, pero no encuentro dónde. ¿Alguna idea?
+Muchas gracias de antemano.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1495450/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buenas! No consigo que trabaje correctamente la función de Leer Archivo del módulo Initialize all applications. Incluso si le especifico la ruta como tal explícitamente, copiando y pegando desde el explorador, me arroja el mensaje de error que adjunto al final del mensaje. ¿Alguna idea de por qué está ocurriendo esto?
+</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1491224/</t>
+  </si>
+  <si>
+    <t>Buenas. En el Orquestador, me dice que tengo un QUeue en proceso, pero nunca termina, qué hago en este caso?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1591384/</t>
+  </si>
+  <si>
+    <t>Buenas! No consigo que corra la función Leer Archivo de Texto del módulo Initialize All Applications. Me arroja...</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1491211/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let’s do it </t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1603176/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muy buena herramienta 'Bizagi Modeler’. No la conocía </t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1603244/</t>
+  </si>
+  <si>
+    <t>¿Cómo se programa la ejecución de tareas? (Schedule)</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1546722/</t>
+  </si>
+  <si>
+    <t>Así quedé 
+.
+Se me acaba de abrir un universo nuevo de posibilidades
+.
+Gracias Jorge!!</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1603298/</t>
+  </si>
+  <si>
+    <t>Sacando temas inherentes a la situación que nos atañe a todos en el 2020, hubiera sido mucho mejor usar un tema claro para las aplicaciones (de escritorio y web). Los temas oscuros tienen un pésimo contraste, al menos cuando se generan videos y fotografías.
+No me cabe dudas que Jorge es un genio en su profesión, pero le falta pedagogía. En relación a esto, creo que se pudo modularizar mucho mejor el curso con lecciones/videos más enfocados y cortos.
+La edición también se puede mejorar en mi humilde opinión.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1575118/</t>
+  </si>
+  <si>
+    <t>Excelente!! Vine buscando cobre y encontré oro! Justo quiero meter UIPath a mi empresa, y viene de maravilla!
+Gracias!</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1422372/</t>
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>RPA: Automatización robótica de procesos repetitivos mediante un software
+Robotic Process Automation
+Reglas:
+Entradas digitales
+Proceso estandarizado
+Proceso con reglas de negocio definidas
+Tareas repetitivas
+Consumen mucho tiempo</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1413909/</t>
+  </si>
+  <si>
+    <t>Bismarck Antonio Cerda Huerta</t>
+  </si>
+  <si>
+    <t>Actualmente trabajo como desarrollador RPA y Rocketbot a pesar de ser relativamente nuevos, ha resultado ser una herramienta bastante poderosa para desarrollar bots y es free, la versión de paga únicamente te permite features como ejecutar bots en paralelo y te brindan un orquetador de bots.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1555879/</t>
+  </si>
+  <si>
+    <t>Juan Carlos Salazar</t>
+  </si>
+  <si>
+    <t>Rocketbot es una excelente opción!!</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1548352/</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1413920/</t>
+  </si>
+  <si>
+    <t>Sería bueno conocer cuáles artefactos genera cada rol para darle claridad a su aporte en el proceso</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1407719/</t>
+  </si>
+  <si>
+    <t>Andrés Balam Gómez Pantoja</t>
+  </si>
+  <si>
+    <t>¿Que tanta diferencia hay entre UIPath y Automation Anywhere?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1534977/</t>
+  </si>
+  <si>
+    <t>Ya lo tenía descargado hace dos meses, ya que he estado mirando las rutas de aprendizaje directamente en Uipath.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1439209/</t>
+  </si>
+  <si>
+    <t>Go go go</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1425768/</t>
+  </si>
+  <si>
+    <t>Luis Arturo Cruz Cruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La emoción me sobrepasa </t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1413664/</t>
+  </si>
+  <si>
+    <t>![]()</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1458416/</t>
+  </si>
+  <si>
+    <t>Hola Buenas tardes, Ingrese a la pagina de UiPath como se explica en el capitulo anterior y cuando ejecuto el programa No me muestra la opcion de Licencia de comunidad, que version debo descargar para que el programa me muestre la licencia d comunida ?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1438386/</t>
+  </si>
+  <si>
+    <t>Lisbeth Catalan Castro</t>
+  </si>
+  <si>
+    <t>Reto cumplido!!!
+El proyecto se entendió muy bien.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1572791/</t>
+  </si>
+  <si>
+    <t>Excelente!!!</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1568950/</t>
+  </si>
+  <si>
+    <t>Juan Eduardo Quintero Palacio</t>
+  </si>
+  <si>
+    <t>A mi, por alguna razón, no me deja subir imagenes, arrastro la captura al cuadro de texto y no me deja subirlas, así que aquí dejo un link de imgur en donde está el comienzo del reto.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1513410/</t>
+  </si>
+  <si>
+    <t>Siento este curso algo enredado, los pasos no están muy bien explicados y hay que devolver el vídeo varias veces para poder entender que hace.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1477105/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yo use la actividad message box.
+</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1450295/</t>
+  </si>
+  <si>
+    <t>Hola, disculpen. Cuando creó la carpeta nueva, no me genera un xaml de manera automatica, alguien sabe porque no sale igual?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1440278/</t>
+  </si>
+  <si>
+    <t>no se me creo automaticamente el archio EscribirHolaMundo.xaml … apesar que al ejecutar el robot si se ejecuto bien… tuve que realizarlo manualmente…porque a ti se te creo automaticamente el “XAML de Hola mundo” ?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1408315/</t>
+  </si>
+  <si>
+    <t>John Freddy Barrantes Gama</t>
+  </si>
+  <si>
+    <t>XAML (Extensive Application Markup Lenguage) es el formato para la interfaz de usuario de Windows y también se utiliza en .NET</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1411913/</t>
+  </si>
+  <si>
+    <t>Super interesante profesor Jorge, me gustaría profundizar en el mundo de RPA y entender un poco más sobre las relaciones entre los roles de: el uipath developer, uipath analyst y el uipath architect. ¿Y sobre RPA, la tendencia de uso de esta tecnología va en aumento según su experiencia?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1422570/</t>
+  </si>
+  <si>
+    <t>Buen día, seguí los pasos indicados y no me presenta ningún error.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1569564/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A la fecha de hoy 01 Julio 2020 , ya viene integrado con código VB y C#
+</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1466165/</t>
+  </si>
+  <si>
+    <t>Muy buenas herramientas de depuración.
+![](</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1469435/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No tenia ni idea de que era Git y menos de como funcionada, tome los cursos que recomendaron y en 5 días logre entender los comandos principales y logre hacer hacer esto, ahora ya tengo pendiente terminar este curso y terminar el de Git &amp; Github!!! </t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1602737/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los pasos a seguir y sus respectivos screenshoots de pantalla están desordenados.
+.
+El desorden comienza a ocurrir a partir del siguiente párrafo: “Al dar clic en Save, pedirá el usuario y contraseña de tu cuenta de GIT para poder hacer el Push. Lo proporcionamos y damos clic en Ok”
+.
+Es complicado seguir el hilo de la clase así. Espero que lo modifiquen.
+.
+Por cierto: Me está volando la cabeza este curso!! </t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1600501/</t>
+  </si>
+  <si>
+    <t>Me genera el siguente error “No se puede encontrar una parte de la ruta de acceso ‘C:\Users\Usuario\Documents\UiPath\CursoRPA_Platzy_git2_a14792’.”, ¿que se debe hacer?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1417512/</t>
+  </si>
+  <si>
+    <t>Buena explicación de como instalar los pack.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1487899/</t>
+  </si>
+  <si>
+    <t>Para mi es satisfactorio ver trabajar un proceso tan simple, como sera tener un proyecto grande y verlo trabajar.
+Muy buen contenido.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1457436/</t>
+  </si>
+  <si>
+    <t>Hola, tuve un problema: "Leer PDF con OCR: Error performing OCR: Unable to initialize Microsoft engine MicrosoftErrorCreateEngine&amp;qu...</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1447887/</t>
+  </si>
+  <si>
+    <t>Utilizar decisiones
+If: Continuo
+Switch: Periodico</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1454617/</t>
+  </si>
+  <si>
+    <t>Ciclos
+For each
+– Listas y arreglos
+For each row
+– DataTables
+While
+– Condición primero
+Do while
+– Ejecuta y luego checa</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1454811/</t>
+  </si>
+  <si>
+    <t>Nose por que cuando extraje como flujo de trabajo, se rompió toda la secuencia, me toco prácticamente hacerla de nuevo… pero al final fue un alivio que funcionara… muy buena clase</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1454004/</t>
+  </si>
+  <si>
+    <t>He realizado algunas ejercicios de automatizacion con seleniun pero lo favorable RPA es que permite realizar estos mismos proceso mucho mas rapido y sin tener que escribir codigo.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1421323/</t>
+  </si>
+  <si>
+    <t>A mi me tomo en cuenta también las clases particulares en si (referente al minuto 5:25).
+¿Hay alguna manera de indicarle al asistente que ignore las clases particulares?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1460427/</t>
+  </si>
+  <si>
+    <t>Profesor, cuando hago el “Data Scrapping” y me aparece automáticamente toda una secuencia dedicada a esta actividad. Si yo saco de la se...</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1426712/</t>
+  </si>
+  <si>
+    <t>Comentario escrito por un robot |o_o|</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1469817/</t>
+  </si>
+  <si>
+    <t>Hola, estoy escribiendo mi primer comentario desde Uipath</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1463685/</t>
+  </si>
+  <si>
+    <t>Beep Beep - Soy un robot - Beep Beep</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1586298/</t>
+  </si>
+  <si>
+    <t>¿Es posible agregar los datos secretos de mi correo y contraseña sin tener que asignarlos directamente en el programa?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1474098/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no me sale licencia de estudio disponible, solo de estudio pro. Intento crear con esa y no me deja </t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1482686/</t>
+  </si>
+  <si>
+    <t>Buenas tardes profesor, hasta ahora no me queda claro el uso de lorquestador.
+¿Para qué sirve, qué gano, es imprescindible tener un orquestador? Hasta el momento lo que he visto es que todo se complica.
+Se podría armar un refuerzo del uso del orquestador y su lógica de funcionamiento desde un enfoque general y flujo de datos?.
+Muchas gracias de antemano.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1546618/</t>
+  </si>
+  <si>
+    <t>Muy interesante</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1499620/</t>
+  </si>
+  <si>
+    <t>espero mucho de este curso! me gustaria ser un especialisa en RPA</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1408059/</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>soy usuario linux , que puedo usar en lugar de uipath?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1474402/</t>
+  </si>
+  <si>
+    <t>Si alguno tuvo un error, revisen si la secuencia en la que están para mi caso (Variables) esta conectada al Start, es muy fácil, solo se tienen que parar sobre la secuencia y darle click derecho y luego click sobre la última opción (Set as Start Node)</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1531148/</t>
+  </si>
+  <si>
+    <t>Vengo del futuro a contarles que el curso vale 100% la pena y el profesor hace un buen trabajo. Aun no lo he terminado al curso pero este es el único video que esta un poco “raro” todos los demas están bien explicados y me están resultando muy útiles en mi objetivo.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1492046/</t>
+  </si>
+  <si>
+    <t>Ya pude terminar la clase, gracias a los aportes, deberían de hacer de nuevo la clase sin errores y que el profesor este mas tranquilo.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1464885/</t>
+  </si>
+  <si>
+    <t>Pregunta hay forma de indicarle a la automatizacion que espere cierta cantidad de tiempo antes que ejecutes la siguiente accion.
+Ejemplo: 20 segundos</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1482959/</t>
+  </si>
+  <si>
+    <t>Hola, no pude encontar la actividad “Attach Window o Abrir aplicación” en el programa UiPath ¿Alguien puede ayudarme a encontrar la herra...</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1444933/</t>
+  </si>
+  <si>
+    <t>Hola buenas noches, he intentado colocar la función SPLIT pero no lo reconoce
+¿A qué se debe?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1452556/</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1570893/</t>
+  </si>
+  <si>
+    <t>En el final del curso se puede apreciar que el mundo de UIPATH es bastante grande y tiene alcances amplios en los cuales puede ser aplicado, seria muy bueno que agregaran ejemplos de la industria con el uso de estos robots, casos reales para tener una idea.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1536278/</t>
+  </si>
+  <si>
+    <t>Mario Emiliano Gordon Pico</t>
+  </si>
+  <si>
+    <t>No me gusta el nuevo formato de video de Platzi, el como pone los dos frames de video separados y no se le ve al profesor y poco las presenataciones</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1413195/</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Herramienta:
+UIPath:
+Robot: Servicio de windows que ejecuta
+Orchestrator: Control y monitoreo, agendas
+Studio: Desarrollo (drag and drop)</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1413998/</t>
+  </si>
+  <si>
+    <t>Jorge Cisneros</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo con @Claudio es demasiado.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1447041/</t>
+  </si>
+  <si>
+    <t>noemk2</t>
+  </si>
+  <si>
+    <t>UiPath para windows …
+Selenium para widows/linux
+Autohotkey para window/linux</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1475490/</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Jorge Alejandro Falcon Alvarez</t>
+  </si>
+  <si>
+    <t>Posterior a la creación de la carpeta, debemos dar clic derecho sobre la carpeta, luego en Add y seleccionamos "Sequence" para crear el XAML. Otra forma de crear el XAML es dar clic derecho sobre la Sequence que tenemos en nuestro Main, luego elegimos "Extract as Workflow"</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1408928/</t>
   </si>
 </sst>
 </file>
@@ -458,29 +2380,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="11" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K261"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="11" width="20.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -519,19 +2520,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -542,19 +2543,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -565,19 +2566,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -588,19 +2589,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -611,19 +2612,19 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -634,24 +2635,5830 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>189</v>
+      </c>
+      <c r="B66" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" t="s">
+        <v>195</v>
+      </c>
+      <c r="D68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>196</v>
+      </c>
+      <c r="B69" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" t="s">
+        <v>198</v>
+      </c>
+      <c r="D69" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>199</v>
+      </c>
+      <c r="B70" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" t="s">
+        <v>201</v>
+      </c>
+      <c r="D70" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B72" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" t="s">
+        <v>205</v>
+      </c>
+      <c r="D72" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" t="s">
+        <v>208</v>
+      </c>
+      <c r="D74" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" t="s">
+        <v>209</v>
+      </c>
+      <c r="C75" t="s">
+        <v>210</v>
+      </c>
+      <c r="D75" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" t="s">
+        <v>212</v>
+      </c>
+      <c r="D76" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>213</v>
+      </c>
+      <c r="B77" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" t="s">
+        <v>215</v>
+      </c>
+      <c r="D77" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78" t="s">
+        <v>217</v>
+      </c>
+      <c r="D78" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" t="s">
+        <v>219</v>
+      </c>
+      <c r="D79" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" t="s">
+        <v>220</v>
+      </c>
+      <c r="C80" t="s">
+        <v>221</v>
+      </c>
+      <c r="D80" t="s">
+        <v>44</v>
+      </c>
+      <c r="E80" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81" t="s">
+        <v>223</v>
+      </c>
+      <c r="D81" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" t="s">
+        <v>224</v>
+      </c>
+      <c r="D82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" t="s">
+        <v>225</v>
+      </c>
+      <c r="C83" t="s">
+        <v>226</v>
+      </c>
+      <c r="D83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84" t="s">
+        <v>228</v>
+      </c>
+      <c r="C84" t="s">
+        <v>229</v>
+      </c>
+      <c r="D84" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" t="s">
+        <v>230</v>
+      </c>
+      <c r="C85" t="s">
+        <v>231</v>
+      </c>
+      <c r="D85" t="s">
+        <v>44</v>
+      </c>
+      <c r="E85" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>57</v>
+      </c>
+      <c r="B86" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" t="s">
+        <v>233</v>
+      </c>
+      <c r="D86" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" t="s">
+        <v>23</v>
+      </c>
+      <c r="F86" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" t="s">
+        <v>234</v>
+      </c>
+      <c r="C87" t="s">
+        <v>235</v>
+      </c>
+      <c r="D87" t="s">
+        <v>44</v>
+      </c>
+      <c r="E87" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>54</v>
+      </c>
+      <c r="B88" t="s">
+        <v>236</v>
+      </c>
+      <c r="C88" t="s">
+        <v>237</v>
+      </c>
+      <c r="D88" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>185</v>
+      </c>
+      <c r="B89" t="s">
+        <v>238</v>
+      </c>
+      <c r="C89" t="s">
+        <v>239</v>
+      </c>
+      <c r="D89" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" t="s">
+        <v>23</v>
+      </c>
+      <c r="F89" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" t="s">
+        <v>240</v>
+      </c>
+      <c r="C90" t="s">
+        <v>241</v>
+      </c>
+      <c r="D90" t="s">
+        <v>44</v>
+      </c>
+      <c r="E90" t="s">
+        <v>23</v>
+      </c>
+      <c r="F90" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>242</v>
+      </c>
+      <c r="C91" t="s">
+        <v>243</v>
+      </c>
+      <c r="D91" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" t="s">
+        <v>244</v>
+      </c>
+      <c r="C92" t="s">
+        <v>245</v>
+      </c>
+      <c r="D92" t="s">
+        <v>44</v>
+      </c>
+      <c r="E92" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>246</v>
+      </c>
+      <c r="B93" t="s">
+        <v>247</v>
+      </c>
+      <c r="C93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D93" t="s">
+        <v>44</v>
+      </c>
+      <c r="E93" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>249</v>
+      </c>
+      <c r="B94" t="s">
+        <v>250</v>
+      </c>
+      <c r="C94" t="s">
+        <v>251</v>
+      </c>
+      <c r="D94" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>252</v>
+      </c>
+      <c r="B95" t="s">
+        <v>253</v>
+      </c>
+      <c r="C95" t="s">
+        <v>254</v>
+      </c>
+      <c r="D95" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" t="s">
+        <v>255</v>
+      </c>
+      <c r="C96" t="s">
+        <v>256</v>
+      </c>
+      <c r="D96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E96" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97" t="s">
+        <v>257</v>
+      </c>
+      <c r="C97" t="s">
+        <v>258</v>
+      </c>
+      <c r="D97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E97" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>27</v>
+      </c>
+      <c r="B98" t="s">
+        <v>259</v>
+      </c>
+      <c r="C98" t="s">
+        <v>260</v>
+      </c>
+      <c r="D98" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>182</v>
+      </c>
+      <c r="B99" t="s">
+        <v>261</v>
+      </c>
+      <c r="C99" t="s">
+        <v>262</v>
+      </c>
+      <c r="D99" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" t="s">
+        <v>23</v>
+      </c>
+      <c r="F99" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>185</v>
+      </c>
+      <c r="B100" t="s">
+        <v>263</v>
+      </c>
+      <c r="C100" t="s">
+        <v>264</v>
+      </c>
+      <c r="D100" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F100" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>265</v>
+      </c>
+      <c r="B101" t="s">
+        <v>266</v>
+      </c>
+      <c r="C101" t="s">
+        <v>267</v>
+      </c>
+      <c r="D101" t="s">
+        <v>44</v>
+      </c>
+      <c r="E101" t="s">
+        <v>23</v>
+      </c>
+      <c r="F101" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>268</v>
+      </c>
+      <c r="B102" t="s">
+        <v>269</v>
+      </c>
+      <c r="C102" t="s">
+        <v>270</v>
+      </c>
+      <c r="D102" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" t="s">
+        <v>23</v>
+      </c>
+      <c r="F102" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>271</v>
+      </c>
+      <c r="B103" t="s">
+        <v>272</v>
+      </c>
+      <c r="C103" t="s">
+        <v>273</v>
+      </c>
+      <c r="D103" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" t="s">
+        <v>23</v>
+      </c>
+      <c r="F103" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>54</v>
+      </c>
+      <c r="B104" t="s">
+        <v>274</v>
+      </c>
+      <c r="C104" t="s">
+        <v>275</v>
+      </c>
+      <c r="D104" t="s">
+        <v>44</v>
+      </c>
+      <c r="E104" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105" t="s">
+        <v>276</v>
+      </c>
+      <c r="C105" t="s">
+        <v>277</v>
+      </c>
+      <c r="D105" t="s">
+        <v>44</v>
+      </c>
+      <c r="E105" t="s">
+        <v>23</v>
+      </c>
+      <c r="F105" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" t="s">
+        <v>278</v>
+      </c>
+      <c r="D106" t="s">
+        <v>44</v>
+      </c>
+      <c r="E106" t="s">
+        <v>23</v>
+      </c>
+      <c r="F106" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>185</v>
+      </c>
+      <c r="B107" t="s">
+        <v>279</v>
+      </c>
+      <c r="C107" t="s">
+        <v>280</v>
+      </c>
+      <c r="D107" t="s">
+        <v>44</v>
+      </c>
+      <c r="E107" t="s">
+        <v>23</v>
+      </c>
+      <c r="F107" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>185</v>
+      </c>
+      <c r="B108" t="s">
+        <v>281</v>
+      </c>
+      <c r="C108" t="s">
+        <v>282</v>
+      </c>
+      <c r="D108" t="s">
+        <v>44</v>
+      </c>
+      <c r="E108" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" t="s">
+        <v>16</v>
+      </c>
+      <c r="H108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>185</v>
+      </c>
+      <c r="B109" t="s">
+        <v>283</v>
+      </c>
+      <c r="C109" t="s">
+        <v>284</v>
+      </c>
+      <c r="D109" t="s">
+        <v>44</v>
+      </c>
+      <c r="E109" t="s">
+        <v>23</v>
+      </c>
+      <c r="F109" t="s">
+        <v>16</v>
+      </c>
+      <c r="H109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>54</v>
+      </c>
+      <c r="B110" t="s">
+        <v>285</v>
+      </c>
+      <c r="C110" t="s">
+        <v>286</v>
+      </c>
+      <c r="D110" t="s">
+        <v>44</v>
+      </c>
+      <c r="E110" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110" t="s">
+        <v>16</v>
+      </c>
+      <c r="H110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>287</v>
+      </c>
+      <c r="B111" t="s">
+        <v>288</v>
+      </c>
+      <c r="C111" t="s">
+        <v>289</v>
+      </c>
+      <c r="D111" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111" t="s">
+        <v>23</v>
+      </c>
+      <c r="F111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>290</v>
+      </c>
+      <c r="B112" t="s">
+        <v>291</v>
+      </c>
+      <c r="C112" t="s">
+        <v>292</v>
+      </c>
+      <c r="D112" t="s">
+        <v>44</v>
+      </c>
+      <c r="E112" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112" t="s">
+        <v>16</v>
+      </c>
+      <c r="H112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>196</v>
+      </c>
+      <c r="B113" t="s">
+        <v>293</v>
+      </c>
+      <c r="C113" t="s">
+        <v>294</v>
+      </c>
+      <c r="D113" t="s">
+        <v>44</v>
+      </c>
+      <c r="E113" t="s">
+        <v>23</v>
+      </c>
+      <c r="F113" t="s">
+        <v>16</v>
+      </c>
+      <c r="H113" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>295</v>
+      </c>
+      <c r="B114" t="s">
+        <v>296</v>
+      </c>
+      <c r="C114" t="s">
+        <v>297</v>
+      </c>
+      <c r="D114" t="s">
+        <v>44</v>
+      </c>
+      <c r="E114" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" t="s">
+        <v>16</v>
+      </c>
+      <c r="H114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>37</v>
+      </c>
+      <c r="B115" t="s">
+        <v>298</v>
+      </c>
+      <c r="C115" t="s">
+        <v>299</v>
+      </c>
+      <c r="D115" t="s">
+        <v>44</v>
+      </c>
+      <c r="E115" t="s">
+        <v>23</v>
+      </c>
+      <c r="F115" t="s">
+        <v>16</v>
+      </c>
+      <c r="H115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>300</v>
+      </c>
+      <c r="B116" t="s">
+        <v>301</v>
+      </c>
+      <c r="C116" t="s">
+        <v>302</v>
+      </c>
+      <c r="D116" t="s">
+        <v>44</v>
+      </c>
+      <c r="E116" t="s">
+        <v>23</v>
+      </c>
+      <c r="F116" t="s">
+        <v>16</v>
+      </c>
+      <c r="H116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>185</v>
+      </c>
+      <c r="B117" t="s">
+        <v>303</v>
+      </c>
+      <c r="C117" t="s">
+        <v>304</v>
+      </c>
+      <c r="D117" t="s">
+        <v>44</v>
+      </c>
+      <c r="E117" t="s">
+        <v>23</v>
+      </c>
+      <c r="F117" t="s">
+        <v>16</v>
+      </c>
+      <c r="H117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>51</v>
+      </c>
+      <c r="B118" t="s">
+        <v>305</v>
+      </c>
+      <c r="C118" t="s">
+        <v>306</v>
+      </c>
+      <c r="D118" t="s">
+        <v>44</v>
+      </c>
+      <c r="E118" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118" t="s">
+        <v>16</v>
+      </c>
+      <c r="H118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>169</v>
+      </c>
+      <c r="B119" t="s">
+        <v>307</v>
+      </c>
+      <c r="C119" t="s">
+        <v>308</v>
+      </c>
+      <c r="D119" t="s">
+        <v>44</v>
+      </c>
+      <c r="E119" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119" t="s">
+        <v>16</v>
+      </c>
+      <c r="H119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>172</v>
+      </c>
+      <c r="B120" t="s">
+        <v>309</v>
+      </c>
+      <c r="C120" t="s">
+        <v>310</v>
+      </c>
+      <c r="D120" t="s">
+        <v>44</v>
+      </c>
+      <c r="E120" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" t="s">
+        <v>16</v>
+      </c>
+      <c r="H120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>252</v>
+      </c>
+      <c r="B121" t="s">
+        <v>311</v>
+      </c>
+      <c r="C121" t="s">
+        <v>312</v>
+      </c>
+      <c r="D121" t="s">
+        <v>44</v>
+      </c>
+      <c r="E121" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121" t="s">
+        <v>16</v>
+      </c>
+      <c r="H121" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>196</v>
+      </c>
+      <c r="B122" t="s">
+        <v>313</v>
+      </c>
+      <c r="C122" t="s">
+        <v>314</v>
+      </c>
+      <c r="D122" t="s">
+        <v>44</v>
+      </c>
+      <c r="E122" t="s">
+        <v>23</v>
+      </c>
+      <c r="F122" t="s">
+        <v>16</v>
+      </c>
+      <c r="H122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>315</v>
+      </c>
+      <c r="B123" t="s">
+        <v>316</v>
+      </c>
+      <c r="C123" t="s">
+        <v>317</v>
+      </c>
+      <c r="D123" t="s">
+        <v>44</v>
+      </c>
+      <c r="E123" t="s">
+        <v>23</v>
+      </c>
+      <c r="F123" t="s">
+        <v>16</v>
+      </c>
+      <c r="H123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>54</v>
+      </c>
+      <c r="B124" t="s">
+        <v>318</v>
+      </c>
+      <c r="C124" t="s">
+        <v>319</v>
+      </c>
+      <c r="D124" t="s">
+        <v>44</v>
+      </c>
+      <c r="E124" t="s">
+        <v>23</v>
+      </c>
+      <c r="F124" t="s">
+        <v>16</v>
+      </c>
+      <c r="H124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>37</v>
+      </c>
+      <c r="B125" t="s">
+        <v>320</v>
+      </c>
+      <c r="C125" t="s">
+        <v>321</v>
+      </c>
+      <c r="D125" t="s">
+        <v>44</v>
+      </c>
+      <c r="E125" t="s">
+        <v>23</v>
+      </c>
+      <c r="F125" t="s">
+        <v>16</v>
+      </c>
+      <c r="H125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>185</v>
+      </c>
+      <c r="B126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C126" t="s">
+        <v>323</v>
+      </c>
+      <c r="D126" t="s">
+        <v>44</v>
+      </c>
+      <c r="E126" t="s">
+        <v>23</v>
+      </c>
+      <c r="F126" t="s">
+        <v>16</v>
+      </c>
+      <c r="H126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>169</v>
+      </c>
+      <c r="B127" t="s">
+        <v>324</v>
+      </c>
+      <c r="C127" t="s">
+        <v>325</v>
+      </c>
+      <c r="D127" t="s">
+        <v>44</v>
+      </c>
+      <c r="E127" t="s">
+        <v>23</v>
+      </c>
+      <c r="F127" t="s">
+        <v>16</v>
+      </c>
+      <c r="H127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>326</v>
+      </c>
+      <c r="B128" t="s">
+        <v>327</v>
+      </c>
+      <c r="C128" t="s">
+        <v>328</v>
+      </c>
+      <c r="D128" t="s">
+        <v>44</v>
+      </c>
+      <c r="E128" t="s">
+        <v>23</v>
+      </c>
+      <c r="F128" t="s">
+        <v>16</v>
+      </c>
+      <c r="H128" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>249</v>
+      </c>
+      <c r="B129" t="s">
+        <v>329</v>
+      </c>
+      <c r="C129" t="s">
+        <v>330</v>
+      </c>
+      <c r="D129" t="s">
+        <v>44</v>
+      </c>
+      <c r="E129" t="s">
+        <v>23</v>
+      </c>
+      <c r="F129" t="s">
+        <v>16</v>
+      </c>
+      <c r="H129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>138</v>
+      </c>
+      <c r="B130" t="s">
+        <v>331</v>
+      </c>
+      <c r="C130" t="s">
+        <v>332</v>
+      </c>
+      <c r="D130" t="s">
+        <v>44</v>
+      </c>
+      <c r="E130" t="s">
+        <v>23</v>
+      </c>
+      <c r="F130" t="s">
+        <v>16</v>
+      </c>
+      <c r="H130" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>162</v>
+      </c>
+      <c r="B131" t="s">
+        <v>333</v>
+      </c>
+      <c r="C131" t="s">
+        <v>334</v>
+      </c>
+      <c r="D131" t="s">
+        <v>44</v>
+      </c>
+      <c r="E131" t="s">
+        <v>23</v>
+      </c>
+      <c r="F131" t="s">
+        <v>16</v>
+      </c>
+      <c r="H131" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>227</v>
+      </c>
+      <c r="B132" t="s">
+        <v>335</v>
+      </c>
+      <c r="C132" t="s">
+        <v>336</v>
+      </c>
+      <c r="D132" t="s">
+        <v>44</v>
+      </c>
+      <c r="E132" t="s">
+        <v>23</v>
+      </c>
+      <c r="F132" t="s">
+        <v>16</v>
+      </c>
+      <c r="H132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>185</v>
+      </c>
+      <c r="B133" t="s">
+        <v>337</v>
+      </c>
+      <c r="C133" t="s">
+        <v>338</v>
+      </c>
+      <c r="D133" t="s">
+        <v>44</v>
+      </c>
+      <c r="E133" t="s">
+        <v>23</v>
+      </c>
+      <c r="F133" t="s">
+        <v>16</v>
+      </c>
+      <c r="H133" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>339</v>
+      </c>
+      <c r="B134" t="s">
+        <v>340</v>
+      </c>
+      <c r="C134" t="s">
+        <v>341</v>
+      </c>
+      <c r="D134" t="s">
+        <v>44</v>
+      </c>
+      <c r="E134" t="s">
+        <v>23</v>
+      </c>
+      <c r="F134" t="s">
+        <v>16</v>
+      </c>
+      <c r="H134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>342</v>
+      </c>
+      <c r="B135" t="s">
+        <v>343</v>
+      </c>
+      <c r="C135" t="s">
+        <v>344</v>
+      </c>
+      <c r="D135" t="s">
+        <v>44</v>
+      </c>
+      <c r="E135" t="s">
+        <v>23</v>
+      </c>
+      <c r="F135" t="s">
+        <v>16</v>
+      </c>
+      <c r="H135" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>159</v>
+      </c>
+      <c r="B136" t="s">
+        <v>345</v>
+      </c>
+      <c r="C136" t="s">
+        <v>346</v>
+      </c>
+      <c r="D136" t="s">
+        <v>44</v>
+      </c>
+      <c r="E136" t="s">
+        <v>23</v>
+      </c>
+      <c r="F136" t="s">
+        <v>16</v>
+      </c>
+      <c r="H136" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>57</v>
+      </c>
+      <c r="B137" t="s">
+        <v>347</v>
+      </c>
+      <c r="C137" t="s">
+        <v>348</v>
+      </c>
+      <c r="D137" t="s">
+        <v>44</v>
+      </c>
+      <c r="E137" t="s">
+        <v>23</v>
+      </c>
+      <c r="F137" t="s">
+        <v>16</v>
+      </c>
+      <c r="H137" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>349</v>
+      </c>
+      <c r="B138" t="s">
+        <v>350</v>
+      </c>
+      <c r="C138" t="s">
+        <v>351</v>
+      </c>
+      <c r="D138" t="s">
+        <v>44</v>
+      </c>
+      <c r="E138" t="s">
+        <v>23</v>
+      </c>
+      <c r="F138" t="s">
+        <v>16</v>
+      </c>
+      <c r="H138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>252</v>
+      </c>
+      <c r="B139" t="s">
+        <v>352</v>
+      </c>
+      <c r="C139" t="s">
+        <v>353</v>
+      </c>
+      <c r="D139" t="s">
+        <v>44</v>
+      </c>
+      <c r="E139" t="s">
+        <v>23</v>
+      </c>
+      <c r="F139" t="s">
+        <v>16</v>
+      </c>
+      <c r="H139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>354</v>
+      </c>
+      <c r="B140" t="s">
+        <v>355</v>
+      </c>
+      <c r="C140" t="s">
+        <v>356</v>
+      </c>
+      <c r="D140" t="s">
+        <v>44</v>
+      </c>
+      <c r="E140" t="s">
+        <v>23</v>
+      </c>
+      <c r="F140" t="s">
+        <v>16</v>
+      </c>
+      <c r="H140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>357</v>
+      </c>
+      <c r="B141" t="s">
+        <v>358</v>
+      </c>
+      <c r="C141" t="s">
+        <v>359</v>
+      </c>
+      <c r="D141" t="s">
+        <v>44</v>
+      </c>
+      <c r="E141" t="s">
+        <v>23</v>
+      </c>
+      <c r="F141" t="s">
+        <v>16</v>
+      </c>
+      <c r="H141" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>339</v>
+      </c>
+      <c r="B142" t="s">
+        <v>360</v>
+      </c>
+      <c r="C142" t="s">
+        <v>361</v>
+      </c>
+      <c r="D142" t="s">
+        <v>44</v>
+      </c>
+      <c r="E142" t="s">
+        <v>23</v>
+      </c>
+      <c r="F142" t="s">
+        <v>16</v>
+      </c>
+      <c r="H142" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>362</v>
+      </c>
+      <c r="B143" t="s">
+        <v>363</v>
+      </c>
+      <c r="C143" t="s">
+        <v>364</v>
+      </c>
+      <c r="D143" t="s">
+        <v>44</v>
+      </c>
+      <c r="E143" t="s">
+        <v>23</v>
+      </c>
+      <c r="F143" t="s">
+        <v>16</v>
+      </c>
+      <c r="H143" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>249</v>
+      </c>
+      <c r="B144" t="s">
+        <v>365</v>
+      </c>
+      <c r="C144" t="s">
+        <v>366</v>
+      </c>
+      <c r="D144" t="s">
+        <v>44</v>
+      </c>
+      <c r="E144" t="s">
+        <v>23</v>
+      </c>
+      <c r="F144" t="s">
+        <v>16</v>
+      </c>
+      <c r="H144" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>227</v>
+      </c>
+      <c r="B145" t="s">
+        <v>367</v>
+      </c>
+      <c r="C145" t="s">
+        <v>368</v>
+      </c>
+      <c r="D145" t="s">
+        <v>44</v>
+      </c>
+      <c r="E145" t="s">
+        <v>23</v>
+      </c>
+      <c r="F145" t="s">
+        <v>16</v>
+      </c>
+      <c r="H145" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>185</v>
+      </c>
+      <c r="B146" t="s">
+        <v>369</v>
+      </c>
+      <c r="C146" t="s">
+        <v>370</v>
+      </c>
+      <c r="D146" t="s">
+        <v>44</v>
+      </c>
+      <c r="E146" t="s">
+        <v>23</v>
+      </c>
+      <c r="F146" t="s">
+        <v>16</v>
+      </c>
+      <c r="H146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>371</v>
+      </c>
+      <c r="B147" t="s">
+        <v>372</v>
+      </c>
+      <c r="C147" t="s">
+        <v>373</v>
+      </c>
+      <c r="D147" t="s">
+        <v>44</v>
+      </c>
+      <c r="E147" t="s">
+        <v>23</v>
+      </c>
+      <c r="F147" t="s">
+        <v>16</v>
+      </c>
+      <c r="H147" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>374</v>
+      </c>
+      <c r="B148" t="s">
+        <v>375</v>
+      </c>
+      <c r="C148" t="s">
+        <v>376</v>
+      </c>
+      <c r="D148" t="s">
+        <v>44</v>
+      </c>
+      <c r="E148" t="s">
+        <v>23</v>
+      </c>
+      <c r="F148" t="s">
+        <v>16</v>
+      </c>
+      <c r="H148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>51</v>
+      </c>
+      <c r="B149" t="s">
+        <v>377</v>
+      </c>
+      <c r="C149" t="s">
+        <v>378</v>
+      </c>
+      <c r="D149" t="s">
+        <v>44</v>
+      </c>
+      <c r="E149" t="s">
+        <v>23</v>
+      </c>
+      <c r="F149" t="s">
+        <v>16</v>
+      </c>
+      <c r="H149" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>172</v>
+      </c>
+      <c r="B150" t="s">
+        <v>379</v>
+      </c>
+      <c r="C150" t="s">
+        <v>380</v>
+      </c>
+      <c r="D150" t="s">
+        <v>44</v>
+      </c>
+      <c r="E150" t="s">
+        <v>23</v>
+      </c>
+      <c r="F150" t="s">
+        <v>16</v>
+      </c>
+      <c r="H150" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>381</v>
+      </c>
+      <c r="B151" t="s">
+        <v>382</v>
+      </c>
+      <c r="C151" t="s">
+        <v>383</v>
+      </c>
+      <c r="D151" t="s">
+        <v>44</v>
+      </c>
+      <c r="E151" t="s">
+        <v>23</v>
+      </c>
+      <c r="F151" t="s">
+        <v>16</v>
+      </c>
+      <c r="H151" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>271</v>
+      </c>
+      <c r="B152" t="s">
+        <v>384</v>
+      </c>
+      <c r="C152" t="s">
+        <v>385</v>
+      </c>
+      <c r="D152" t="s">
+        <v>44</v>
+      </c>
+      <c r="E152" t="s">
+        <v>23</v>
+      </c>
+      <c r="F152" t="s">
+        <v>16</v>
+      </c>
+      <c r="H152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>290</v>
+      </c>
+      <c r="B153" t="s">
+        <v>386</v>
+      </c>
+      <c r="C153" t="s">
+        <v>387</v>
+      </c>
+      <c r="D153" t="s">
+        <v>44</v>
+      </c>
+      <c r="E153" t="s">
+        <v>23</v>
+      </c>
+      <c r="F153" t="s">
+        <v>16</v>
+      </c>
+      <c r="H153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>349</v>
+      </c>
+      <c r="B154" t="s">
+        <v>388</v>
+      </c>
+      <c r="C154" t="s">
+        <v>389</v>
+      </c>
+      <c r="D154" t="s">
+        <v>44</v>
+      </c>
+      <c r="E154" t="s">
+        <v>23</v>
+      </c>
+      <c r="F154" t="s">
+        <v>16</v>
+      </c>
+      <c r="H154" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>249</v>
+      </c>
+      <c r="B155" t="s">
+        <v>390</v>
+      </c>
+      <c r="C155" t="s">
+        <v>391</v>
+      </c>
+      <c r="D155" t="s">
+        <v>44</v>
+      </c>
+      <c r="E155" t="s">
+        <v>23</v>
+      </c>
+      <c r="F155" t="s">
+        <v>16</v>
+      </c>
+      <c r="H155" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>357</v>
+      </c>
+      <c r="B156" t="s">
+        <v>392</v>
+      </c>
+      <c r="C156" t="s">
+        <v>393</v>
+      </c>
+      <c r="D156" t="s">
+        <v>44</v>
+      </c>
+      <c r="E156" t="s">
+        <v>23</v>
+      </c>
+      <c r="F156" t="s">
+        <v>16</v>
+      </c>
+      <c r="H156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>185</v>
+      </c>
+      <c r="B157" t="s">
+        <v>394</v>
+      </c>
+      <c r="C157" t="s">
+        <v>395</v>
+      </c>
+      <c r="D157" t="s">
+        <v>44</v>
+      </c>
+      <c r="E157" t="s">
+        <v>23</v>
+      </c>
+      <c r="F157" t="s">
+        <v>16</v>
+      </c>
+      <c r="H157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>51</v>
+      </c>
+      <c r="B158" t="s">
+        <v>396</v>
+      </c>
+      <c r="C158" t="s">
+        <v>397</v>
+      </c>
+      <c r="D158" t="s">
+        <v>44</v>
+      </c>
+      <c r="E158" t="s">
+        <v>23</v>
+      </c>
+      <c r="F158" t="s">
+        <v>16</v>
+      </c>
+      <c r="H158" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>339</v>
+      </c>
+      <c r="B159" t="s">
+        <v>398</v>
+      </c>
+      <c r="C159" t="s">
+        <v>399</v>
+      </c>
+      <c r="D159" t="s">
+        <v>44</v>
+      </c>
+      <c r="E159" t="s">
+        <v>23</v>
+      </c>
+      <c r="F159" t="s">
+        <v>16</v>
+      </c>
+      <c r="H159" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>249</v>
+      </c>
+      <c r="B160" t="s">
+        <v>400</v>
+      </c>
+      <c r="C160" t="s">
+        <v>401</v>
+      </c>
+      <c r="D160" t="s">
+        <v>44</v>
+      </c>
+      <c r="E160" t="s">
+        <v>23</v>
+      </c>
+      <c r="F160" t="s">
+        <v>16</v>
+      </c>
+      <c r="H160" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>185</v>
+      </c>
+      <c r="B161" t="s">
+        <v>402</v>
+      </c>
+      <c r="C161" t="s">
+        <v>403</v>
+      </c>
+      <c r="D161" t="s">
+        <v>44</v>
+      </c>
+      <c r="E161" t="s">
+        <v>23</v>
+      </c>
+      <c r="F161" t="s">
+        <v>16</v>
+      </c>
+      <c r="H161" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>300</v>
+      </c>
+      <c r="B162" t="s">
+        <v>404</v>
+      </c>
+      <c r="C162" t="s">
+        <v>405</v>
+      </c>
+      <c r="D162" t="s">
+        <v>44</v>
+      </c>
+      <c r="E162" t="s">
+        <v>23</v>
+      </c>
+      <c r="F162" t="s">
+        <v>16</v>
+      </c>
+      <c r="H162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>51</v>
+      </c>
+      <c r="B163" t="s">
+        <v>406</v>
+      </c>
+      <c r="C163" t="s">
+        <v>407</v>
+      </c>
+      <c r="D163" t="s">
+        <v>44</v>
+      </c>
+      <c r="E163" t="s">
+        <v>23</v>
+      </c>
+      <c r="F163" t="s">
+        <v>16</v>
+      </c>
+      <c r="H163" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>249</v>
+      </c>
+      <c r="B164" t="s">
+        <v>408</v>
+      </c>
+      <c r="C164" t="s">
+        <v>409</v>
+      </c>
+      <c r="D164" t="s">
+        <v>44</v>
+      </c>
+      <c r="E164" t="s">
+        <v>23</v>
+      </c>
+      <c r="F164" t="s">
+        <v>16</v>
+      </c>
+      <c r="H164" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>51</v>
+      </c>
+      <c r="B165" t="s">
+        <v>410</v>
+      </c>
+      <c r="C165" t="s">
+        <v>411</v>
+      </c>
+      <c r="D165" t="s">
+        <v>44</v>
+      </c>
+      <c r="E165" t="s">
+        <v>23</v>
+      </c>
+      <c r="F165" t="s">
+        <v>16</v>
+      </c>
+      <c r="H165" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>249</v>
+      </c>
+      <c r="B166" t="s">
+        <v>412</v>
+      </c>
+      <c r="C166" t="s">
+        <v>413</v>
+      </c>
+      <c r="D166" t="s">
+        <v>44</v>
+      </c>
+      <c r="E166" t="s">
+        <v>23</v>
+      </c>
+      <c r="F166" t="s">
+        <v>16</v>
+      </c>
+      <c r="H166" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>121</v>
+      </c>
+      <c r="B167" t="s">
+        <v>414</v>
+      </c>
+      <c r="C167" t="s">
+        <v>415</v>
+      </c>
+      <c r="D167" t="s">
+        <v>44</v>
+      </c>
+      <c r="E167" t="s">
+        <v>23</v>
+      </c>
+      <c r="F167" t="s">
+        <v>16</v>
+      </c>
+      <c r="H167" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>249</v>
+      </c>
+      <c r="B168" t="s">
+        <v>416</v>
+      </c>
+      <c r="C168" t="s">
+        <v>417</v>
+      </c>
+      <c r="D168" t="s">
+        <v>44</v>
+      </c>
+      <c r="E168" t="s">
+        <v>23</v>
+      </c>
+      <c r="F168" t="s">
+        <v>16</v>
+      </c>
+      <c r="H168" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>418</v>
+      </c>
+      <c r="B169" t="s">
+        <v>419</v>
+      </c>
+      <c r="C169" t="s">
+        <v>420</v>
+      </c>
+      <c r="D169" t="s">
+        <v>44</v>
+      </c>
+      <c r="E169" t="s">
+        <v>23</v>
+      </c>
+      <c r="F169" t="s">
+        <v>16</v>
+      </c>
+      <c r="H169" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>349</v>
+      </c>
+      <c r="B170" t="s">
+        <v>421</v>
+      </c>
+      <c r="C170" t="s">
+        <v>422</v>
+      </c>
+      <c r="D170" t="s">
+        <v>44</v>
+      </c>
+      <c r="E170" t="s">
+        <v>23</v>
+      </c>
+      <c r="F170" t="s">
+        <v>16</v>
+      </c>
+      <c r="H170" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>185</v>
+      </c>
+      <c r="B171" t="s">
+        <v>423</v>
+      </c>
+      <c r="C171" t="s">
+        <v>424</v>
+      </c>
+      <c r="D171" t="s">
+        <v>44</v>
+      </c>
+      <c r="E171" t="s">
+        <v>23</v>
+      </c>
+      <c r="F171" t="s">
+        <v>16</v>
+      </c>
+      <c r="H171" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>425</v>
+      </c>
+      <c r="C172" t="s">
+        <v>426</v>
+      </c>
+      <c r="D172" t="s">
+        <v>44</v>
+      </c>
+      <c r="E172" t="s">
+        <v>23</v>
+      </c>
+      <c r="F172" t="s">
+        <v>16</v>
+      </c>
+      <c r="H172" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>27</v>
+      </c>
+      <c r="B173" t="s">
+        <v>427</v>
+      </c>
+      <c r="C173" t="s">
+        <v>428</v>
+      </c>
+      <c r="D173" t="s">
+        <v>44</v>
+      </c>
+      <c r="E173" t="s">
+        <v>23</v>
+      </c>
+      <c r="F173" t="s">
+        <v>16</v>
+      </c>
+      <c r="H173" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>265</v>
+      </c>
+      <c r="B174" t="s">
+        <v>429</v>
+      </c>
+      <c r="C174" t="s">
+        <v>430</v>
+      </c>
+      <c r="D174" t="s">
+        <v>44</v>
+      </c>
+      <c r="E174" t="s">
+        <v>23</v>
+      </c>
+      <c r="F174" t="s">
+        <v>16</v>
+      </c>
+      <c r="H174" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>227</v>
+      </c>
+      <c r="B175" t="s">
+        <v>431</v>
+      </c>
+      <c r="C175" t="s">
+        <v>432</v>
+      </c>
+      <c r="D175" t="s">
+        <v>44</v>
+      </c>
+      <c r="E175" t="s">
+        <v>23</v>
+      </c>
+      <c r="F175" t="s">
+        <v>16</v>
+      </c>
+      <c r="H175" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>433</v>
+      </c>
+      <c r="B176" t="s">
+        <v>434</v>
+      </c>
+      <c r="C176" t="s">
+        <v>435</v>
+      </c>
+      <c r="D176" t="s">
+        <v>44</v>
+      </c>
+      <c r="E176" t="s">
+        <v>23</v>
+      </c>
+      <c r="F176" t="s">
+        <v>16</v>
+      </c>
+      <c r="H176" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>315</v>
+      </c>
+      <c r="B177" t="s">
+        <v>436</v>
+      </c>
+      <c r="C177" t="s">
+        <v>437</v>
+      </c>
+      <c r="D177" t="s">
+        <v>44</v>
+      </c>
+      <c r="E177" t="s">
+        <v>23</v>
+      </c>
+      <c r="F177" t="s">
+        <v>16</v>
+      </c>
+      <c r="H177" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>438</v>
+      </c>
+      <c r="B178" t="s">
+        <v>439</v>
+      </c>
+      <c r="C178" t="s">
+        <v>440</v>
+      </c>
+      <c r="D178" t="s">
+        <v>44</v>
+      </c>
+      <c r="E178" t="s">
+        <v>23</v>
+      </c>
+      <c r="F178" t="s">
+        <v>16</v>
+      </c>
+      <c r="H178" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>271</v>
+      </c>
+      <c r="B179" t="s">
+        <v>441</v>
+      </c>
+      <c r="C179" t="s">
+        <v>442</v>
+      </c>
+      <c r="D179" t="s">
+        <v>44</v>
+      </c>
+      <c r="E179" t="s">
+        <v>23</v>
+      </c>
+      <c r="F179" t="s">
+        <v>16</v>
+      </c>
+      <c r="H179" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>185</v>
+      </c>
+      <c r="B180" t="s">
+        <v>443</v>
+      </c>
+      <c r="C180" t="s">
+        <v>444</v>
+      </c>
+      <c r="D180" t="s">
+        <v>44</v>
+      </c>
+      <c r="E180" t="s">
+        <v>23</v>
+      </c>
+      <c r="F180" t="s">
+        <v>16</v>
+      </c>
+      <c r="H180" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>51</v>
+      </c>
+      <c r="B181" t="s">
+        <v>445</v>
+      </c>
+      <c r="C181" t="s">
+        <v>446</v>
+      </c>
+      <c r="D181" t="s">
+        <v>44</v>
+      </c>
+      <c r="E181" t="s">
+        <v>23</v>
+      </c>
+      <c r="F181" t="s">
+        <v>16</v>
+      </c>
+      <c r="H181" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>447</v>
+      </c>
+      <c r="B182" t="s">
+        <v>448</v>
+      </c>
+      <c r="C182" t="s">
+        <v>449</v>
+      </c>
+      <c r="D182" t="s">
+        <v>44</v>
+      </c>
+      <c r="E182" t="s">
+        <v>23</v>
+      </c>
+      <c r="F182" t="s">
+        <v>16</v>
+      </c>
+      <c r="H182" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>185</v>
+      </c>
+      <c r="B183" t="s">
+        <v>450</v>
+      </c>
+      <c r="C183" t="s">
+        <v>451</v>
+      </c>
+      <c r="D183" t="s">
+        <v>44</v>
+      </c>
+      <c r="E183" t="s">
+        <v>23</v>
+      </c>
+      <c r="F183" t="s">
+        <v>16</v>
+      </c>
+      <c r="H183" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>315</v>
+      </c>
+      <c r="B184" t="s">
+        <v>452</v>
+      </c>
+      <c r="C184" t="s">
+        <v>453</v>
+      </c>
+      <c r="D184" t="s">
+        <v>44</v>
+      </c>
+      <c r="E184" t="s">
+        <v>23</v>
+      </c>
+      <c r="F184" t="s">
+        <v>16</v>
+      </c>
+      <c r="H184" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>121</v>
+      </c>
+      <c r="B185" t="s">
+        <v>454</v>
+      </c>
+      <c r="C185" t="s">
+        <v>455</v>
+      </c>
+      <c r="D185" t="s">
+        <v>44</v>
+      </c>
+      <c r="E185" t="s">
+        <v>23</v>
+      </c>
+      <c r="F185" t="s">
+        <v>16</v>
+      </c>
+      <c r="H185" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>105</v>
+      </c>
+      <c r="B186" t="s">
+        <v>456</v>
+      </c>
+      <c r="C186" t="s">
+        <v>457</v>
+      </c>
+      <c r="D186" t="s">
+        <v>44</v>
+      </c>
+      <c r="E186" t="s">
+        <v>23</v>
+      </c>
+      <c r="F186" t="s">
+        <v>16</v>
+      </c>
+      <c r="H186" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>268</v>
+      </c>
+      <c r="B187" t="s">
+        <v>458</v>
+      </c>
+      <c r="C187" t="s">
+        <v>459</v>
+      </c>
+      <c r="D187" t="s">
+        <v>44</v>
+      </c>
+      <c r="E187" t="s">
+        <v>23</v>
+      </c>
+      <c r="F187" t="s">
+        <v>16</v>
+      </c>
+      <c r="H187" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>185</v>
+      </c>
+      <c r="B188" t="s">
+        <v>460</v>
+      </c>
+      <c r="C188" t="s">
+        <v>461</v>
+      </c>
+      <c r="D188" t="s">
+        <v>44</v>
+      </c>
+      <c r="E188" t="s">
+        <v>23</v>
+      </c>
+      <c r="F188" t="s">
+        <v>16</v>
+      </c>
+      <c r="H188" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>51</v>
+      </c>
+      <c r="B189" t="s">
+        <v>462</v>
+      </c>
+      <c r="C189" t="s">
+        <v>463</v>
+      </c>
+      <c r="D189" t="s">
+        <v>44</v>
+      </c>
+      <c r="E189" t="s">
+        <v>23</v>
+      </c>
+      <c r="F189" t="s">
+        <v>16</v>
+      </c>
+      <c r="H189" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>315</v>
+      </c>
+      <c r="B190" t="s">
+        <v>464</v>
+      </c>
+      <c r="C190" t="s">
+        <v>465</v>
+      </c>
+      <c r="D190" t="s">
+        <v>44</v>
+      </c>
+      <c r="E190" t="s">
+        <v>23</v>
+      </c>
+      <c r="F190" t="s">
+        <v>16</v>
+      </c>
+      <c r="H190" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>433</v>
+      </c>
+      <c r="B191" t="s">
+        <v>466</v>
+      </c>
+      <c r="C191" t="s">
+        <v>467</v>
+      </c>
+      <c r="D191" t="s">
+        <v>44</v>
+      </c>
+      <c r="E191" t="s">
+        <v>23</v>
+      </c>
+      <c r="F191" t="s">
+        <v>16</v>
+      </c>
+      <c r="H191" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>315</v>
+      </c>
+      <c r="B192" t="s">
+        <v>468</v>
+      </c>
+      <c r="C192" t="s">
+        <v>469</v>
+      </c>
+      <c r="D192" t="s">
+        <v>44</v>
+      </c>
+      <c r="E192" t="s">
+        <v>23</v>
+      </c>
+      <c r="F192" t="s">
+        <v>16</v>
+      </c>
+      <c r="H192" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>227</v>
+      </c>
+      <c r="B193" t="s">
+        <v>470</v>
+      </c>
+      <c r="C193" t="s">
+        <v>471</v>
+      </c>
+      <c r="D193" t="s">
+        <v>44</v>
+      </c>
+      <c r="E193" t="s">
+        <v>23</v>
+      </c>
+      <c r="F193" t="s">
+        <v>16</v>
+      </c>
+      <c r="H193" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>121</v>
+      </c>
+      <c r="B194" t="s">
+        <v>472</v>
+      </c>
+      <c r="C194" t="s">
+        <v>473</v>
+      </c>
+      <c r="D194" t="s">
+        <v>44</v>
+      </c>
+      <c r="E194" t="s">
+        <v>23</v>
+      </c>
+      <c r="F194" t="s">
+        <v>16</v>
+      </c>
+      <c r="H194" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>300</v>
+      </c>
+      <c r="B195" t="s">
+        <v>474</v>
+      </c>
+      <c r="C195" t="s">
+        <v>475</v>
+      </c>
+      <c r="D195" t="s">
+        <v>44</v>
+      </c>
+      <c r="E195" t="s">
+        <v>23</v>
+      </c>
+      <c r="F195" t="s">
+        <v>16</v>
+      </c>
+      <c r="H195" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>300</v>
+      </c>
+      <c r="B196" t="s">
+        <v>476</v>
+      </c>
+      <c r="C196" t="s">
+        <v>477</v>
+      </c>
+      <c r="D196" t="s">
+        <v>44</v>
+      </c>
+      <c r="E196" t="s">
+        <v>23</v>
+      </c>
+      <c r="F196" t="s">
+        <v>16</v>
+      </c>
+      <c r="H196" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>433</v>
+      </c>
+      <c r="B197" t="s">
+        <v>478</v>
+      </c>
+      <c r="C197" t="s">
+        <v>479</v>
+      </c>
+      <c r="D197" t="s">
+        <v>44</v>
+      </c>
+      <c r="E197" t="s">
+        <v>23</v>
+      </c>
+      <c r="F197" t="s">
+        <v>16</v>
+      </c>
+      <c r="H197" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>300</v>
+      </c>
+      <c r="B198" t="s">
+        <v>480</v>
+      </c>
+      <c r="C198" t="s">
+        <v>481</v>
+      </c>
+      <c r="D198" t="s">
+        <v>44</v>
+      </c>
+      <c r="E198" t="s">
+        <v>23</v>
+      </c>
+      <c r="F198" t="s">
+        <v>16</v>
+      </c>
+      <c r="H198" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>339</v>
+      </c>
+      <c r="B199" t="s">
+        <v>482</v>
+      </c>
+      <c r="C199" t="s">
+        <v>483</v>
+      </c>
+      <c r="D199" t="s">
+        <v>44</v>
+      </c>
+      <c r="E199" t="s">
+        <v>23</v>
+      </c>
+      <c r="F199" t="s">
+        <v>16</v>
+      </c>
+      <c r="H199" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>339</v>
+      </c>
+      <c r="B200" t="s">
+        <v>484</v>
+      </c>
+      <c r="C200" t="s">
+        <v>485</v>
+      </c>
+      <c r="D200" t="s">
+        <v>44</v>
+      </c>
+      <c r="E200" t="s">
+        <v>23</v>
+      </c>
+      <c r="F200" t="s">
+        <v>16</v>
+      </c>
+      <c r="H200" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>349</v>
+      </c>
+      <c r="B201" t="s">
+        <v>486</v>
+      </c>
+      <c r="C201" t="s">
+        <v>487</v>
+      </c>
+      <c r="D201" t="s">
+        <v>44</v>
+      </c>
+      <c r="E201" t="s">
+        <v>23</v>
+      </c>
+      <c r="F201" t="s">
+        <v>16</v>
+      </c>
+      <c r="H201" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>339</v>
+      </c>
+      <c r="B202" t="s">
+        <v>488</v>
+      </c>
+      <c r="C202" t="s">
+        <v>489</v>
+      </c>
+      <c r="D202" t="s">
+        <v>44</v>
+      </c>
+      <c r="E202" t="s">
+        <v>23</v>
+      </c>
+      <c r="F202" t="s">
+        <v>16</v>
+      </c>
+      <c r="H202" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>447</v>
+      </c>
+      <c r="B203" t="s">
+        <v>490</v>
+      </c>
+      <c r="C203" t="s">
+        <v>491</v>
+      </c>
+      <c r="D203" t="s">
+        <v>44</v>
+      </c>
+      <c r="E203" t="s">
+        <v>23</v>
+      </c>
+      <c r="F203" t="s">
+        <v>16</v>
+      </c>
+      <c r="H203" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>326</v>
+      </c>
+      <c r="B204" t="s">
+        <v>492</v>
+      </c>
+      <c r="C204" t="s">
+        <v>493</v>
+      </c>
+      <c r="D204" t="s">
+        <v>494</v>
+      </c>
+      <c r="E204" t="s">
+        <v>23</v>
+      </c>
+      <c r="F204" t="s">
+        <v>16</v>
+      </c>
+      <c r="H204" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>185</v>
+      </c>
+      <c r="B205" t="s">
+        <v>495</v>
+      </c>
+      <c r="C205" t="s">
+        <v>496</v>
+      </c>
+      <c r="D205" t="s">
+        <v>494</v>
+      </c>
+      <c r="E205" t="s">
+        <v>23</v>
+      </c>
+      <c r="F205" t="s">
+        <v>16</v>
+      </c>
+      <c r="H205" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>497</v>
+      </c>
+      <c r="B206" t="s">
+        <v>498</v>
+      </c>
+      <c r="C206" t="s">
+        <v>499</v>
+      </c>
+      <c r="D206" t="s">
+        <v>494</v>
+      </c>
+      <c r="E206" t="s">
+        <v>23</v>
+      </c>
+      <c r="F206" t="s">
+        <v>16</v>
+      </c>
+      <c r="H206" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>500</v>
+      </c>
+      <c r="B207" t="s">
+        <v>501</v>
+      </c>
+      <c r="C207" t="s">
+        <v>502</v>
+      </c>
+      <c r="D207" t="s">
+        <v>494</v>
+      </c>
+      <c r="E207" t="s">
+        <v>23</v>
+      </c>
+      <c r="F207" t="s">
+        <v>16</v>
+      </c>
+      <c r="H207" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>185</v>
+      </c>
+      <c r="C208" t="s">
+        <v>503</v>
+      </c>
+      <c r="D208" t="s">
+        <v>494</v>
+      </c>
+      <c r="E208" t="s">
+        <v>23</v>
+      </c>
+      <c r="F208" t="s">
+        <v>16</v>
+      </c>
+      <c r="H208" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>129</v>
+      </c>
+      <c r="B209" t="s">
+        <v>504</v>
+      </c>
+      <c r="C209" t="s">
+        <v>505</v>
+      </c>
+      <c r="D209" t="s">
+        <v>494</v>
+      </c>
+      <c r="E209" t="s">
+        <v>23</v>
+      </c>
+      <c r="F209" t="s">
+        <v>16</v>
+      </c>
+      <c r="H209" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>506</v>
+      </c>
+      <c r="B210" t="s">
+        <v>507</v>
+      </c>
+      <c r="C210" t="s">
+        <v>508</v>
+      </c>
+      <c r="D210" t="s">
+        <v>494</v>
+      </c>
+      <c r="E210" t="s">
+        <v>23</v>
+      </c>
+      <c r="F210" t="s">
+        <v>16</v>
+      </c>
+      <c r="H210" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>51</v>
+      </c>
+      <c r="B211" t="s">
+        <v>509</v>
+      </c>
+      <c r="C211" t="s">
+        <v>510</v>
+      </c>
+      <c r="D211" t="s">
+        <v>494</v>
+      </c>
+      <c r="E211" t="s">
+        <v>23</v>
+      </c>
+      <c r="F211" t="s">
+        <v>16</v>
+      </c>
+      <c r="H211" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>27</v>
+      </c>
+      <c r="B212" t="s">
+        <v>511</v>
+      </c>
+      <c r="C212" t="s">
+        <v>512</v>
+      </c>
+      <c r="D212" t="s">
+        <v>494</v>
+      </c>
+      <c r="E212" t="s">
+        <v>23</v>
+      </c>
+      <c r="F212" t="s">
+        <v>16</v>
+      </c>
+      <c r="H212" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>513</v>
+      </c>
+      <c r="B213" t="s">
+        <v>514</v>
+      </c>
+      <c r="C213" t="s">
+        <v>515</v>
+      </c>
+      <c r="D213" t="s">
+        <v>494</v>
+      </c>
+      <c r="E213" t="s">
+        <v>23</v>
+      </c>
+      <c r="F213" t="s">
+        <v>16</v>
+      </c>
+      <c r="H213" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>37</v>
+      </c>
+      <c r="B214" t="s">
+        <v>516</v>
+      </c>
+      <c r="C214" t="s">
+        <v>517</v>
+      </c>
+      <c r="D214" t="s">
+        <v>494</v>
+      </c>
+      <c r="E214" t="s">
+        <v>23</v>
+      </c>
+      <c r="F214" t="s">
+        <v>16</v>
+      </c>
+      <c r="H214" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>172</v>
+      </c>
+      <c r="B215" t="s">
+        <v>518</v>
+      </c>
+      <c r="C215" t="s">
+        <v>519</v>
+      </c>
+      <c r="D215" t="s">
+        <v>494</v>
+      </c>
+      <c r="E215" t="s">
+        <v>23</v>
+      </c>
+      <c r="F215" t="s">
+        <v>16</v>
+      </c>
+      <c r="H215" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>520</v>
+      </c>
+      <c r="B216" t="s">
+        <v>521</v>
+      </c>
+      <c r="C216" t="s">
+        <v>522</v>
+      </c>
+      <c r="D216" t="s">
+        <v>494</v>
+      </c>
+      <c r="E216" t="s">
+        <v>23</v>
+      </c>
+      <c r="F216" t="s">
+        <v>16</v>
+      </c>
+      <c r="H216" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>192</v>
+      </c>
+      <c r="B217" t="s">
+        <v>523</v>
+      </c>
+      <c r="C217" t="s">
+        <v>524</v>
+      </c>
+      <c r="D217" t="s">
+        <v>494</v>
+      </c>
+      <c r="E217" t="s">
+        <v>23</v>
+      </c>
+      <c r="F217" t="s">
+        <v>16</v>
+      </c>
+      <c r="H217" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>525</v>
+      </c>
+      <c r="B218" t="s">
+        <v>526</v>
+      </c>
+      <c r="C218" t="s">
+        <v>527</v>
+      </c>
+      <c r="D218" t="s">
+        <v>494</v>
+      </c>
+      <c r="E218" t="s">
+        <v>23</v>
+      </c>
+      <c r="F218" t="s">
+        <v>16</v>
+      </c>
+      <c r="H218" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>57</v>
+      </c>
+      <c r="B219" t="s">
+        <v>528</v>
+      </c>
+      <c r="C219" t="s">
+        <v>529</v>
+      </c>
+      <c r="D219" t="s">
+        <v>494</v>
+      </c>
+      <c r="E219" t="s">
+        <v>23</v>
+      </c>
+      <c r="F219" t="s">
+        <v>16</v>
+      </c>
+      <c r="H219" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>51</v>
+      </c>
+      <c r="B220" t="s">
+        <v>530</v>
+      </c>
+      <c r="C220" t="s">
+        <v>531</v>
+      </c>
+      <c r="D220" t="s">
+        <v>494</v>
+      </c>
+      <c r="E220" t="s">
+        <v>23</v>
+      </c>
+      <c r="F220" t="s">
+        <v>16</v>
+      </c>
+      <c r="H220" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>326</v>
+      </c>
+      <c r="B221" t="s">
+        <v>532</v>
+      </c>
+      <c r="C221" t="s">
+        <v>533</v>
+      </c>
+      <c r="D221" t="s">
+        <v>494</v>
+      </c>
+      <c r="E221" t="s">
+        <v>23</v>
+      </c>
+      <c r="F221" t="s">
+        <v>16</v>
+      </c>
+      <c r="H221" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>124</v>
+      </c>
+      <c r="B222" t="s">
+        <v>534</v>
+      </c>
+      <c r="C222" t="s">
+        <v>535</v>
+      </c>
+      <c r="D222" t="s">
+        <v>494</v>
+      </c>
+      <c r="E222" t="s">
+        <v>23</v>
+      </c>
+      <c r="F222" t="s">
+        <v>16</v>
+      </c>
+      <c r="H222" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>536</v>
+      </c>
+      <c r="B223" t="s">
+        <v>537</v>
+      </c>
+      <c r="C223" t="s">
+        <v>538</v>
+      </c>
+      <c r="D223" t="s">
+        <v>494</v>
+      </c>
+      <c r="E223" t="s">
+        <v>23</v>
+      </c>
+      <c r="F223" t="s">
+        <v>16</v>
+      </c>
+      <c r="H223" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>102</v>
+      </c>
+      <c r="B224" t="s">
+        <v>539</v>
+      </c>
+      <c r="C224" t="s">
+        <v>540</v>
+      </c>
+      <c r="D224" t="s">
+        <v>494</v>
+      </c>
+      <c r="E224" t="s">
+        <v>23</v>
+      </c>
+      <c r="F224" t="s">
+        <v>16</v>
+      </c>
+      <c r="H224" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>192</v>
+      </c>
+      <c r="B225" t="s">
+        <v>541</v>
+      </c>
+      <c r="C225" t="s">
+        <v>542</v>
+      </c>
+      <c r="D225" t="s">
+        <v>494</v>
+      </c>
+      <c r="E225" t="s">
+        <v>23</v>
+      </c>
+      <c r="F225" t="s">
+        <v>16</v>
+      </c>
+      <c r="H225" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>37</v>
+      </c>
+      <c r="B226" t="s">
+        <v>543</v>
+      </c>
+      <c r="C226" t="s">
+        <v>544</v>
+      </c>
+      <c r="D226" t="s">
+        <v>494</v>
+      </c>
+      <c r="E226" t="s">
+        <v>23</v>
+      </c>
+      <c r="F226" t="s">
+        <v>16</v>
+      </c>
+      <c r="H226" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>37</v>
+      </c>
+      <c r="B227" t="s">
+        <v>545</v>
+      </c>
+      <c r="C227" t="s">
+        <v>546</v>
+      </c>
+      <c r="D227" t="s">
+        <v>494</v>
+      </c>
+      <c r="E227" t="s">
+        <v>23</v>
+      </c>
+      <c r="F227" t="s">
+        <v>16</v>
+      </c>
+      <c r="H227" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>159</v>
+      </c>
+      <c r="B228" t="s">
+        <v>547</v>
+      </c>
+      <c r="C228" t="s">
+        <v>548</v>
+      </c>
+      <c r="D228" t="s">
+        <v>494</v>
+      </c>
+      <c r="E228" t="s">
+        <v>23</v>
+      </c>
+      <c r="F228" t="s">
+        <v>16</v>
+      </c>
+      <c r="H228" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>339</v>
+      </c>
+      <c r="B229" t="s">
+        <v>549</v>
+      </c>
+      <c r="C229" t="s">
+        <v>550</v>
+      </c>
+      <c r="D229" t="s">
+        <v>494</v>
+      </c>
+      <c r="E229" t="s">
+        <v>23</v>
+      </c>
+      <c r="F229" t="s">
+        <v>16</v>
+      </c>
+      <c r="H229" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>381</v>
+      </c>
+      <c r="B230" t="s">
+        <v>551</v>
+      </c>
+      <c r="C230" t="s">
+        <v>552</v>
+      </c>
+      <c r="D230" t="s">
+        <v>494</v>
+      </c>
+      <c r="E230" t="s">
+        <v>23</v>
+      </c>
+      <c r="F230" t="s">
+        <v>16</v>
+      </c>
+      <c r="H230" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>57</v>
+      </c>
+      <c r="B231" t="s">
+        <v>553</v>
+      </c>
+      <c r="C231" t="s">
+        <v>554</v>
+      </c>
+      <c r="D231" t="s">
+        <v>494</v>
+      </c>
+      <c r="E231" t="s">
+        <v>23</v>
+      </c>
+      <c r="F231" t="s">
+        <v>16</v>
+      </c>
+      <c r="H231" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>51</v>
+      </c>
+      <c r="B232" t="s">
+        <v>555</v>
+      </c>
+      <c r="C232" t="s">
+        <v>556</v>
+      </c>
+      <c r="D232" t="s">
+        <v>494</v>
+      </c>
+      <c r="E232" t="s">
+        <v>23</v>
+      </c>
+      <c r="F232" t="s">
+        <v>16</v>
+      </c>
+      <c r="H232" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>169</v>
+      </c>
+      <c r="B233" t="s">
+        <v>557</v>
+      </c>
+      <c r="C233" t="s">
+        <v>558</v>
+      </c>
+      <c r="D233" t="s">
+        <v>494</v>
+      </c>
+      <c r="E233" t="s">
+        <v>23</v>
+      </c>
+      <c r="F233" t="s">
+        <v>16</v>
+      </c>
+      <c r="H233" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>185</v>
+      </c>
+      <c r="B234" t="s">
+        <v>559</v>
+      </c>
+      <c r="C234" t="s">
+        <v>560</v>
+      </c>
+      <c r="D234" t="s">
+        <v>494</v>
+      </c>
+      <c r="E234" t="s">
+        <v>23</v>
+      </c>
+      <c r="F234" t="s">
+        <v>16</v>
+      </c>
+      <c r="H234" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>185</v>
+      </c>
+      <c r="B235" t="s">
+        <v>561</v>
+      </c>
+      <c r="C235" t="s">
+        <v>562</v>
+      </c>
+      <c r="D235" t="s">
+        <v>494</v>
+      </c>
+      <c r="E235" t="s">
+        <v>23</v>
+      </c>
+      <c r="F235" t="s">
+        <v>16</v>
+      </c>
+      <c r="H235" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>121</v>
+      </c>
+      <c r="B236" t="s">
+        <v>563</v>
+      </c>
+      <c r="C236" t="s">
+        <v>564</v>
+      </c>
+      <c r="D236" t="s">
+        <v>494</v>
+      </c>
+      <c r="E236" t="s">
+        <v>23</v>
+      </c>
+      <c r="F236" t="s">
+        <v>16</v>
+      </c>
+      <c r="H236" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>69</v>
+      </c>
+      <c r="B237" t="s">
+        <v>565</v>
+      </c>
+      <c r="C237" t="s">
+        <v>566</v>
+      </c>
+      <c r="D237" t="s">
+        <v>494</v>
+      </c>
+      <c r="E237" t="s">
+        <v>23</v>
+      </c>
+      <c r="F237" t="s">
+        <v>16</v>
+      </c>
+      <c r="H237" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>185</v>
+      </c>
+      <c r="B238" t="s">
+        <v>567</v>
+      </c>
+      <c r="C238" t="s">
+        <v>568</v>
+      </c>
+      <c r="D238" t="s">
+        <v>494</v>
+      </c>
+      <c r="E238" t="s">
+        <v>23</v>
+      </c>
+      <c r="F238" t="s">
+        <v>16</v>
+      </c>
+      <c r="H238" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>265</v>
+      </c>
+      <c r="B239" t="s">
+        <v>569</v>
+      </c>
+      <c r="C239" t="s">
+        <v>570</v>
+      </c>
+      <c r="D239" t="s">
+        <v>494</v>
+      </c>
+      <c r="E239" t="s">
+        <v>23</v>
+      </c>
+      <c r="F239" t="s">
+        <v>16</v>
+      </c>
+      <c r="H239" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>300</v>
+      </c>
+      <c r="B240" t="s">
+        <v>571</v>
+      </c>
+      <c r="C240" t="s">
+        <v>572</v>
+      </c>
+      <c r="D240" t="s">
+        <v>494</v>
+      </c>
+      <c r="E240" t="s">
+        <v>23</v>
+      </c>
+      <c r="F240" t="s">
+        <v>16</v>
+      </c>
+      <c r="H240" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>51</v>
+      </c>
+      <c r="B241" t="s">
+        <v>573</v>
+      </c>
+      <c r="C241" t="s">
+        <v>574</v>
+      </c>
+      <c r="D241" t="s">
+        <v>494</v>
+      </c>
+      <c r="E241" t="s">
+        <v>23</v>
+      </c>
+      <c r="F241" t="s">
+        <v>16</v>
+      </c>
+      <c r="H241" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>433</v>
+      </c>
+      <c r="B242" t="s">
+        <v>575</v>
+      </c>
+      <c r="C242" t="s">
+        <v>576</v>
+      </c>
+      <c r="D242" t="s">
+        <v>494</v>
+      </c>
+      <c r="E242" t="s">
+        <v>23</v>
+      </c>
+      <c r="F242" t="s">
+        <v>16</v>
+      </c>
+      <c r="H242" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>271</v>
+      </c>
+      <c r="B243" t="s">
+        <v>577</v>
+      </c>
+      <c r="C243" t="s">
+        <v>578</v>
+      </c>
+      <c r="D243" t="s">
+        <v>494</v>
+      </c>
+      <c r="E243" t="s">
+        <v>23</v>
+      </c>
+      <c r="F243" t="s">
+        <v>16</v>
+      </c>
+      <c r="H243" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>121</v>
+      </c>
+      <c r="B244" t="s">
+        <v>579</v>
+      </c>
+      <c r="C244" t="s">
+        <v>580</v>
+      </c>
+      <c r="D244" t="s">
+        <v>494</v>
+      </c>
+      <c r="E244" t="s">
+        <v>23</v>
+      </c>
+      <c r="F244" t="s">
+        <v>16</v>
+      </c>
+      <c r="H244" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>349</v>
+      </c>
+      <c r="B245" t="s">
+        <v>581</v>
+      </c>
+      <c r="C245" t="s">
+        <v>582</v>
+      </c>
+      <c r="D245" t="s">
+        <v>494</v>
+      </c>
+      <c r="E245" t="s">
+        <v>23</v>
+      </c>
+      <c r="F245" t="s">
+        <v>16</v>
+      </c>
+      <c r="H245" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>51</v>
+      </c>
+      <c r="B246" t="s">
+        <v>583</v>
+      </c>
+      <c r="C246" t="s">
+        <v>584</v>
+      </c>
+      <c r="D246" t="s">
+        <v>494</v>
+      </c>
+      <c r="E246" t="s">
+        <v>23</v>
+      </c>
+      <c r="F246" t="s">
+        <v>16</v>
+      </c>
+      <c r="H246" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>124</v>
+      </c>
+      <c r="B247" t="s">
+        <v>585</v>
+      </c>
+      <c r="C247" t="s">
+        <v>586</v>
+      </c>
+      <c r="D247" t="s">
+        <v>587</v>
+      </c>
+      <c r="E247" t="s">
+        <v>23</v>
+      </c>
+      <c r="F247" t="s">
+        <v>16</v>
+      </c>
+      <c r="H247" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>116</v>
+      </c>
+      <c r="B248" t="s">
+        <v>588</v>
+      </c>
+      <c r="C248" t="s">
+        <v>589</v>
+      </c>
+      <c r="D248" t="s">
+        <v>587</v>
+      </c>
+      <c r="E248" t="s">
+        <v>23</v>
+      </c>
+      <c r="F248" t="s">
+        <v>16</v>
+      </c>
+      <c r="H248" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>196</v>
+      </c>
+      <c r="B249" t="s">
+        <v>590</v>
+      </c>
+      <c r="C249" t="s">
+        <v>591</v>
+      </c>
+      <c r="D249" t="s">
+        <v>587</v>
+      </c>
+      <c r="E249" t="s">
+        <v>23</v>
+      </c>
+      <c r="F249" t="s">
+        <v>16</v>
+      </c>
+      <c r="H249" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>199</v>
+      </c>
+      <c r="B250" t="s">
+        <v>592</v>
+      </c>
+      <c r="C250" t="s">
+        <v>593</v>
+      </c>
+      <c r="D250" t="s">
+        <v>587</v>
+      </c>
+      <c r="E250" t="s">
+        <v>23</v>
+      </c>
+      <c r="F250" t="s">
+        <v>16</v>
+      </c>
+      <c r="H250" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>37</v>
+      </c>
+      <c r="B251" t="s">
+        <v>594</v>
+      </c>
+      <c r="C251" t="s">
+        <v>595</v>
+      </c>
+      <c r="D251" t="s">
+        <v>587</v>
+      </c>
+      <c r="E251" t="s">
+        <v>23</v>
+      </c>
+      <c r="F251" t="s">
+        <v>16</v>
+      </c>
+      <c r="H251" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>69</v>
+      </c>
+      <c r="B252" t="s">
+        <v>596</v>
+      </c>
+      <c r="C252" t="s">
+        <v>597</v>
+      </c>
+      <c r="D252" t="s">
+        <v>587</v>
+      </c>
+      <c r="E252" t="s">
+        <v>23</v>
+      </c>
+      <c r="F252" t="s">
+        <v>16</v>
+      </c>
+      <c r="H252" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>169</v>
+      </c>
+      <c r="B253" t="s">
+        <v>598</v>
+      </c>
+      <c r="C253" t="s">
+        <v>599</v>
+      </c>
+      <c r="D253" t="s">
+        <v>587</v>
+      </c>
+      <c r="E253" t="s">
+        <v>23</v>
+      </c>
+      <c r="F253" t="s">
+        <v>16</v>
+      </c>
+      <c r="H253" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>349</v>
+      </c>
+      <c r="B254" t="s">
+        <v>600</v>
+      </c>
+      <c r="C254" t="s">
+        <v>601</v>
+      </c>
+      <c r="D254" t="s">
+        <v>587</v>
+      </c>
+      <c r="E254" t="s">
+        <v>23</v>
+      </c>
+      <c r="F254" t="s">
+        <v>16</v>
+      </c>
+      <c r="H254" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>185</v>
+      </c>
+      <c r="C255" t="s">
+        <v>602</v>
+      </c>
+      <c r="D255" t="s">
+        <v>587</v>
+      </c>
+      <c r="E255" t="s">
+        <v>23</v>
+      </c>
+      <c r="F255" t="s">
+        <v>16</v>
+      </c>
+      <c r="H255" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>57</v>
+      </c>
+      <c r="B256" t="s">
+        <v>603</v>
+      </c>
+      <c r="C256" t="s">
+        <v>604</v>
+      </c>
+      <c r="D256" t="s">
+        <v>587</v>
+      </c>
+      <c r="E256" t="s">
+        <v>23</v>
+      </c>
+      <c r="F256" t="s">
+        <v>16</v>
+      </c>
+      <c r="H256" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>605</v>
+      </c>
+      <c r="B257" t="s">
+        <v>606</v>
+      </c>
+      <c r="C257" t="s">
+        <v>607</v>
+      </c>
+      <c r="D257" t="s">
+        <v>608</v>
+      </c>
+      <c r="E257" t="s">
+        <v>23</v>
+      </c>
+      <c r="F257" t="s">
+        <v>16</v>
+      </c>
+      <c r="H257" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>185</v>
+      </c>
+      <c r="B258" t="s">
+        <v>609</v>
+      </c>
+      <c r="C258" t="s">
+        <v>610</v>
+      </c>
+      <c r="D258" t="s">
+        <v>608</v>
+      </c>
+      <c r="E258" t="s">
+        <v>23</v>
+      </c>
+      <c r="F258" t="s">
+        <v>16</v>
+      </c>
+      <c r="H258" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>611</v>
+      </c>
+      <c r="B259" t="s">
+        <v>612</v>
+      </c>
+      <c r="C259" t="s">
+        <v>613</v>
+      </c>
+      <c r="D259" t="s">
+        <v>608</v>
+      </c>
+      <c r="E259" t="s">
+        <v>23</v>
+      </c>
+      <c r="F259" t="s">
+        <v>16</v>
+      </c>
+      <c r="H259" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>614</v>
+      </c>
+      <c r="B260" t="s">
+        <v>615</v>
+      </c>
+      <c r="C260" t="s">
+        <v>616</v>
+      </c>
+      <c r="D260" t="s">
+        <v>617</v>
+      </c>
+      <c r="E260" t="s">
+        <v>23</v>
+      </c>
+      <c r="F260" t="s">
+        <v>16</v>
+      </c>
+      <c r="H260" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>618</v>
+      </c>
+      <c r="B261" t="s">
+        <v>619</v>
+      </c>
+      <c r="C261" t="s">
+        <v>620</v>
+      </c>
+      <c r="D261" t="s">
+        <v>617</v>
+      </c>
+      <c r="E261" t="s">
+        <v>23</v>
+      </c>
+      <c r="F261" t="s">
+        <v>16</v>
+      </c>
+      <c r="H261" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Data/Output/Comentarios.xlsx
+++ b/Data/Output/Comentarios.xlsx
@@ -2,51 +2,454 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56c8892e474b3fb5/Programación/GitHub/UitPath/FindComments_PlatziCourse/Data/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_5577E5657DA728CE976685CBF61BAD4F25E8501B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{148309B2-BD20-426C-A04B-BA92AE842BD8}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{39CF072F-CD36-4576-B34B-6AA023375B50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{183AE48C-3AE9-4669-B35E-AF0ECE4C23A2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2789533A-213C-4E39-820E-A6BCAD661024}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nuevos" sheetId="2" r:id="rId1"/>
+    <sheet name="Nuevos" sheetId="3" r:id="rId1"/>
+    <sheet name="Seguimiento" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jorge Alejandro Falcon Alvarez</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{02041407-1D02-4172-9AD6-94C8F7958956}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nombre del Estudiante que dejó el comentario escrito por el estudiante en el curso.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D4E0EA20-3508-470E-87E3-6056227EA50C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Comentario escrito por el estudiante en el curso.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{167C0104-B491-458D-83FF-67809451E680}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>La URL del comentario. No la modifiques es la que se usa para navegar al comentario en el sistema de seguimiento.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{DFB1E94E-E658-4A27-9715-B7C581F27ECE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>El número de corazones que hay en el sitio web al momento de extraer los datos.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{119A3113-ADB9-4242-A76F-79714590F6FE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Indica si el comentario ya cuenta con un corazón dado por el robot o el usuaro que ejecuta el robot.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{62AB798C-CF85-45D6-AA23-65A8C90B40F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nombre del curso donde se encontró el comentario.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{300D1268-7EC0-432F-85AA-7B55CB84A259}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Colocar aquí el mensaje de seguimiento para ti, son tus notas de profesor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{29D74532-FFBD-4B83-AFE1-BAA00C6915D1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Colocar un 1 si deseas dar un corazón a este comentario dentro del sitio web.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{A11E795A-73D2-4708-8366-109BDE69D695}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>La última respuesta que fue dada al comentario desde el robot.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{8C491909-FF6A-4A5C-9A09-274CE348935E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>El texto que coloques en esta columna será el texto que se le responderá al estudiante en el próximo seguimiento automático que realices.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{6493A0D4-CC3A-4278-AAC7-E680C7AF899E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Todas las respuesta encontradas en el comentario.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jorge Alejandro Falcon Alvarez</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{CA0E433D-FC78-4252-9FAB-DA3599811432}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nombre del Estudiante que dejó el comentario escrito por el estudiante en el curso.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D8035691-FB81-417D-9824-171A00FB7693}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Comentario escrito por el estudiante en el curso.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{DB4DD8BB-B1C3-403C-A71C-85C73B3FC344}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>La URL del comentario. No la modifiques es la que se usa para navegar al comentario en el sistema de seguimiento.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{842CCBCC-ADB1-47F1-AFFA-019172ADC717}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>El número de corazones que hay en el sitio web al momento de extraer los datos.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{763259DD-61A0-481C-9368-04FA1CFB552F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Indica si el comentario ya cuenta con un corazón dado por el robot o el usuaro que ejecuta el robot.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{7BDFDEA4-29DF-40D1-9708-719FF7BFEA68}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nombre del curso donde se encontró el comentario.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{B52AA9D7-F7C2-4D58-9C81-36A5A17CCF04}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Colocar aquí el mensaje de seguimiento para ti, son tus notas de profesor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{B4FDAEC7-C7B2-437D-83B7-810B60F372D6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Colocar un 1 si deseas dar un corazón a este comentario dentro del sitio web.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{6E27EBFD-C3DA-4BB6-8993-B9575EC0116B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>La última respuesta que fue dada al comentario desde el robot.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{4115E3E4-0355-4066-A77B-E3A2478849A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>El texto que coloques en esta columna será el texto que se le responderá al estudiante en el próximo seguimiento automático que realices.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{8550F152-2363-4EA3-883F-A0B2A67DEE1E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Todas las respuesta encontradas en el comentario.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>https://platzi.com/comentario/1408928/</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>JFEspanolito</t>
-  </si>
-  <si>
     <t>Corazon</t>
   </si>
   <si>
+    <t>CorazonDado</t>
+  </si>
+  <si>
+    <t>Curso</t>
+  </si>
+  <si>
+    <t>Seguimiento</t>
+  </si>
+  <si>
+    <t>DarCorazon</t>
+  </si>
+  <si>
+    <t>MiRespuestaAnterior</t>
+  </si>
+  <si>
     <t>ResponderLoSiguiente</t>
   </si>
   <si>
-    <t>DarCorazon</t>
-  </si>
-  <si>
-    <t>CorazonDado</t>
+    <t>Respuestas</t>
+  </si>
+  <si>
+    <t>Gerardo Jesús Mota Olguín</t>
+  </si>
+  <si>
+    <t>Estoy entusiasmado, aunque he notado que no han puesto en los marcadores los apuntes, sería bueno que los suban por favor.</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1606959/</t>
   </si>
   <si>
     <t>Sí</t>
+  </si>
+  <si>
+    <t>Curso de Automatización de Procesos RPA con UiPath</t>
+  </si>
+  <si>
+    <t>Desarrollador RPA:</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1607026/</t>
+  </si>
+  <si>
+    <t>Dilan Santiago Ariza Cañon</t>
+  </si>
+  <si>
+    <t>Comentario escrito por un robot con UiPath 7u7</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1607681/</t>
+  </si>
+  <si>
+    <t>Andres Agudelo Jaramillo</t>
+  </si>
+  <si>
+    <t>No me quedo claro porque el Assets de credenciales esta en la hoja de Setting y no en la hoja de Assets? que pasa si lo pongo en Assets e...</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1608168/</t>
+  </si>
+  <si>
+    <t>La logica del REF hasta cuando es usable. Cuando recomiendas usarlo y cuando no? y otra pregunta para conectarme y usar Assets con el Orc...</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1608138/</t>
+  </si>
+  <si>
+    <t>me entrega el excel super bien, pero me hace 10 iteraciones de transacciones cuando solo tengo 6 palabras claves en mi archivo txt a que se debe esto?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1608677/</t>
+  </si>
+  <si>
+    <t>Log Message: Object reference not set to an instance of an object. A que se debe este error.?</t>
+  </si>
+  <si>
+    <t>platzi.com/comentario/1608366/</t>
   </si>
 </sst>
 </file>
@@ -56,16 +459,17 @@
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,11 +490,14 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -109,7 +516,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -119,44 +526,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -183,14 +590,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -217,6 +642,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -228,229 +671,410 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1416A71E-5189-4EF6-AD89-BFC95A9A1F14}">
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="11" width="20.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F3" s="1"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882D61FD-6527-4F11-9C3D-308F9083CC96}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="11" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>